--- a/Jogos_do_Dia/2023-08-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="233">
   <si>
     <t>League</t>
   </si>
@@ -139,15 +139,15 @@
     <t>Romania Liga I</t>
   </si>
   <si>
+    <t>Estonia Meistriliiga</t>
+  </si>
+  <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
-  </si>
-  <si>
-    <t>Estonia Meistriliiga</t>
-  </si>
-  <si>
     <t>Austria 2. Liga</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>Spain La Liga</t>
   </si>
   <si>
+    <t>Croatia Prva HNL</t>
+  </si>
+  <si>
+    <t>Belgium First Division B</t>
+  </si>
+  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
-    <t>Croatia Prva HNL</t>
-  </si>
-  <si>
-    <t>Belgium First Division B</t>
-  </si>
-  <si>
     <t>Greece Super League</t>
   </si>
   <si>
@@ -187,33 +187,33 @@
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
+    <t>Uruguay Primera División</t>
+  </si>
+  <si>
+    <t>Italy Serie B</t>
+  </si>
+  <si>
+    <t>Slovakia Super Liga</t>
+  </si>
+  <si>
+    <t>Germany Bundesliga</t>
+  </si>
+  <si>
     <t>England Championship</t>
   </si>
   <si>
-    <t>Slovakia Super Liga</t>
-  </si>
-  <si>
-    <t>Italy Serie B</t>
-  </si>
-  <si>
-    <t>Uruguay Primera División</t>
-  </si>
-  <si>
-    <t>Germany Bundesliga</t>
-  </si>
-  <si>
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
     <t>Wales Welsh Premier League</t>
   </si>
   <si>
+    <t>England Premier League</t>
+  </si>
+  <si>
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>England Premier League</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
@@ -298,6 +298,9 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Suwon</t>
   </si>
   <si>
@@ -307,12 +310,12 @@
     <t>Jeonbuk Motors</t>
   </si>
   <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
     <t>Henan Jianye</t>
   </si>
   <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
     <t>Orenburg</t>
   </si>
   <si>
@@ -322,30 +325,30 @@
     <t>Oţelul Galaţi</t>
   </si>
   <si>
+    <t>Tallinna FC Flora</t>
+  </si>
+  <si>
+    <t>OFK Pirin</t>
+  </si>
+  <si>
     <t>Stal Mielec</t>
   </si>
   <si>
-    <t>OFK Pirin</t>
-  </si>
-  <si>
-    <t>Tallinna FC Flora</t>
+    <t>Admira</t>
+  </si>
+  <si>
+    <t>Leoben</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
   </si>
   <si>
     <t>Liefering</t>
   </si>
   <si>
-    <t>Admira</t>
-  </si>
-  <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
-    <t>St. Pölten</t>
-  </si>
-  <si>
-    <t>Leoben</t>
-  </si>
-  <si>
     <t>Randers</t>
   </si>
   <si>
@@ -358,12 +361,12 @@
     <t>Radnički Niš</t>
   </si>
   <si>
+    <t>Fakel</t>
+  </si>
+  <si>
     <t>MSV Duisburg</t>
   </si>
   <si>
-    <t>Fakel</t>
-  </si>
-  <si>
     <t>FC Schaffhausen</t>
   </si>
   <si>
@@ -373,42 +376,42 @@
     <t>UD Las Palmas</t>
   </si>
   <si>
+    <t>Gorica</t>
+  </si>
+  <si>
+    <t>RFC Seraing</t>
+  </si>
+  <si>
     <t>Dordrecht</t>
   </si>
   <si>
+    <t>KRC Genk II</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
     <t>Den Bosch</t>
   </si>
   <si>
-    <t>Gorica</t>
-  </si>
-  <si>
-    <t>KRC Genk II</t>
-  </si>
-  <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>RFC Seraing</t>
-  </si>
-  <si>
     <t>De Graafschap</t>
   </si>
   <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Panaitolikos</t>
+  </si>
+  <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
     <t>VVV</t>
   </si>
   <si>
     <t>Cambuur</t>
   </si>
   <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>Panaitolikos</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
     <t>Hebar 1918</t>
   </si>
   <si>
@@ -418,54 +421,54 @@
     <t>Aluminij</t>
   </si>
   <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>Torque</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Zemplín Michalovce</t>
+  </si>
+  <si>
+    <t>U Craiova 1948</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Dornbirn</t>
+  </si>
+  <si>
     <t>Hull City</t>
   </si>
   <si>
-    <t>Widzew Łódź</t>
-  </si>
-  <si>
-    <t>U Craiova 1948</t>
-  </si>
-  <si>
-    <t>Dornbirn</t>
-  </si>
-  <si>
-    <t>Zemplín Michalovce</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Torque</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
+    <t>Drogheda United</t>
+  </si>
+  <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
+    <t>Pontypridd Town AFC</t>
+  </si>
+  <si>
     <t>Bala Town</t>
   </si>
   <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Pontypridd Town AFC</t>
-  </si>
-  <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
+    <t>Chelsea</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
     <t>Estrela Amadora</t>
   </si>
   <si>
@@ -481,24 +484,30 @@
     <t>Defensor Sporting</t>
   </si>
   <si>
+    <t>Lecco</t>
+  </si>
+  <si>
+    <t>Ponte Preta</t>
+  </si>
+  <si>
+    <t>Arsenal de Sarandí</t>
+  </si>
+  <si>
     <t>Unión La Calera</t>
   </si>
   <si>
-    <t>Ponte Preta</t>
-  </si>
-  <si>
-    <t>Arsenal de Sarandí</t>
-  </si>
-  <si>
-    <t>Lecco</t>
-  </si>
-  <si>
     <t>Royal Antwerp FC</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
   </si>
   <si>
+    <t>Colón</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
     <t>Incheon United</t>
   </si>
   <si>
@@ -508,12 +517,12 @@
     <t>Daejeon Citizen</t>
   </si>
   <si>
+    <t>Shandong Luneng</t>
+  </si>
+  <si>
     <t>Shanghai SIPG</t>
   </si>
   <si>
-    <t>Shandong Luneng</t>
-  </si>
-  <si>
     <t>CSKA Moskva</t>
   </si>
   <si>
@@ -523,30 +532,30 @@
     <t>Voluntari</t>
   </si>
   <si>
+    <t>Harju Jalgpallikool</t>
+  </si>
+  <si>
+    <t>Botev Vratsa</t>
+  </si>
+  <si>
     <t>Radomiak Radom</t>
   </si>
   <si>
-    <t>Botev Vratsa</t>
-  </si>
-  <si>
-    <t>Harju Jalgpallikool</t>
+    <t>Amstetten</t>
+  </si>
+  <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
+    <t>Floridsdorfer AC</t>
   </si>
   <si>
     <t>Ried</t>
   </si>
   <si>
-    <t>Amstetten</t>
-  </si>
-  <si>
     <t>Horn</t>
   </si>
   <si>
-    <t>Floridsdorfer AC</t>
-  </si>
-  <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
     <t>Viborg</t>
   </si>
   <si>
@@ -559,12 +568,12 @@
     <t>Radnički Kragujevac</t>
   </si>
   <si>
+    <t>Krasnodar</t>
+  </si>
+  <si>
     <t>Ulm</t>
   </si>
   <si>
-    <t>Krasnodar</t>
-  </si>
-  <si>
     <t>Aarau</t>
   </si>
   <si>
@@ -574,42 +583,42 @@
     <t>Real Sociedad</t>
   </si>
   <si>
+    <t>Slaven Koprivnica</t>
+  </si>
+  <si>
+    <t>Zulte-Waregem</t>
+  </si>
+  <si>
     <t>MVV</t>
   </si>
   <si>
+    <t>Club Brugge II</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
+  </si>
+  <si>
     <t>ADO Den Haag</t>
   </si>
   <si>
-    <t>Slaven Koprivnica</t>
-  </si>
-  <si>
-    <t>Club Brugge II</t>
-  </si>
-  <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>Zulte-Waregem</t>
-  </si>
-  <si>
     <t>Emmen</t>
   </si>
   <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>PAS Giannina</t>
+  </si>
+  <si>
+    <t>Gazişehir Gaziantep</t>
+  </si>
+  <si>
     <t>Utrecht II</t>
   </si>
   <si>
     <t>Ajax II</t>
   </si>
   <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>PAS Giannina</t>
-  </si>
-  <si>
-    <t>Gazişehir Gaziantep</t>
-  </si>
-  <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
@@ -619,54 +628,54 @@
     <t>Mura</t>
   </si>
   <si>
+    <t>Śląsk Wrocław</t>
+  </si>
+  <si>
+    <t>Fénix</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>FK Košice</t>
+  </si>
+  <si>
+    <t>Rapid Bucureşti</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Schwarz-Weiß Bregenz</t>
+  </si>
+  <si>
     <t>Bristol City</t>
   </si>
   <si>
-    <t>Śląsk Wrocław</t>
-  </si>
-  <si>
-    <t>Rapid Bucureşti</t>
-  </si>
-  <si>
-    <t>Schwarz-Weiß Bregenz</t>
-  </si>
-  <si>
-    <t>FK Košice</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Fénix</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
+    <t>Cork City</t>
+  </si>
+  <si>
+    <t>Derry City</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
   </si>
   <si>
     <t>Dundalk</t>
   </si>
   <si>
+    <t>Penybont</t>
+  </si>
+  <si>
     <t>Connah's Quay</t>
   </si>
   <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
-    <t>Penybont</t>
-  </si>
-  <si>
-    <t>Derry City</t>
-  </si>
-  <si>
-    <t>Cork City</t>
+    <t>Luton Town</t>
   </si>
   <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Luton Town</t>
-  </si>
-  <si>
     <t>GD Estoril Praia</t>
   </si>
   <si>
@@ -682,22 +691,28 @@
     <t>Wanderers</t>
   </si>
   <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
     <t>Universidad Chile</t>
   </si>
   <si>
-    <t>Londrina</t>
-  </si>
-  <si>
-    <t>Argentinos Juniors</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
     <t>KAA Gent</t>
   </si>
   <si>
     <t>Guaireña</t>
+  </si>
+  <si>
+    <t>Gimnasia La Plata</t>
+  </si>
+  <si>
+    <t>Ituano</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,19 +1201,19 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -1213,10 +1228,10 @@
         <v>3.8</v>
       </c>
       <c r="N2">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P2">
         <v>1.33</v>
@@ -1293,19 +1308,19 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G3">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I3">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1320,10 +1335,10 @@
         <v>3.3</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="O3">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="P3">
         <v>1.39</v>
@@ -1400,19 +1415,19 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G4">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1427,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P4">
         <v>1.36</v>
@@ -1507,97 +1522,97 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G5">
-        <v>5.65</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>4.4</v>
+        <v>11.4</v>
       </c>
       <c r="I5">
-        <v>1.53</v>
+        <v>1.09</v>
       </c>
       <c r="J5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K5">
-        <v>18.5</v>
+        <v>45</v>
       </c>
       <c r="L5">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="M5">
-        <v>4.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="N5">
-        <v>1.66</v>
+        <v>1.22</v>
       </c>
       <c r="O5">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="Q5">
-        <v>3.34</v>
+        <v>4.8</v>
       </c>
       <c r="R5">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="S5">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="T5">
-        <v>2.48</v>
+        <v>6.85</v>
       </c>
       <c r="U5">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="V5">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W5">
-        <v>1.55</v>
+        <v>0.91</v>
       </c>
       <c r="X5">
-        <v>2.64</v>
+        <v>1.09</v>
       </c>
       <c r="Y5">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="Z5">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AA5">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AB5">
-        <v>2.91</v>
+        <v>8</v>
       </c>
       <c r="AC5">
-        <v>8.9</v>
+        <v>13</v>
       </c>
       <c r="AD5">
-        <v>1.57</v>
+        <v>1.1</v>
       </c>
       <c r="AE5">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AF5">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AG5">
         <v>2.12</v>
       </c>
       <c r="AH5">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AI5">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1614,97 +1629,97 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>5.65</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>4.4</v>
       </c>
       <c r="I6">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="J6">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K6">
-        <v>45</v>
+        <v>18.5</v>
       </c>
       <c r="L6">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="M6">
-        <v>8.800000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="N6">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="P6">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="Q6">
-        <v>4.8</v>
+        <v>3.34</v>
       </c>
       <c r="R6">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
       <c r="S6">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="T6">
-        <v>6.85</v>
+        <v>2.48</v>
       </c>
       <c r="U6">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="V6">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W6">
-        <v>0.91</v>
+        <v>1.55</v>
       </c>
       <c r="X6">
-        <v>1.09</v>
+        <v>2.64</v>
       </c>
       <c r="Y6">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="Z6">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AA6">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AB6">
-        <v>8</v>
+        <v>2.91</v>
       </c>
       <c r="AC6">
-        <v>13</v>
+        <v>8.9</v>
       </c>
       <c r="AD6">
-        <v>1.1</v>
+        <v>1.57</v>
       </c>
       <c r="AE6">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AF6">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AG6">
         <v>2.12</v>
       </c>
       <c r="AH6">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="AI6">
-        <v>3.9</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1721,19 +1736,19 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G7">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H7">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I7">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1748,7 +1763,7 @@
         <v>4.55</v>
       </c>
       <c r="N7">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="O7">
         <v>2.29</v>
@@ -1790,28 +1805,28 @@
         <v>2.88</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1828,19 +1843,19 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G8">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I8">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>1.04</v>
@@ -1855,7 +1870,7 @@
         <v>4.02</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -1906,10 +1921,10 @@
         <v>2.66</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG8">
         <v>1.5</v>
@@ -1935,19 +1950,19 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G9">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H9">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -1956,16 +1971,16 @@
         <v>6.9</v>
       </c>
       <c r="L9">
+        <v>1.54</v>
+      </c>
+      <c r="M9">
+        <v>2.43</v>
+      </c>
+      <c r="N9">
+        <v>2.65</v>
+      </c>
+      <c r="O9">
         <v>1.44</v>
-      </c>
-      <c r="M9">
-        <v>2.65</v>
-      </c>
-      <c r="N9">
-        <v>2.35</v>
-      </c>
-      <c r="O9">
-        <v>1.53</v>
       </c>
       <c r="P9">
         <v>1.52</v>
@@ -2025,7 +2040,7 @@
         <v>4.3</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -2039,85 +2054,85 @@
         <v>79</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G10">
-        <v>2.7</v>
+        <v>1.14</v>
       </c>
       <c r="H10">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
       <c r="I10">
-        <v>2.45</v>
+        <v>11.01</v>
       </c>
       <c r="J10">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>28.5</v>
       </c>
       <c r="L10">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="O10">
+        <v>2.89</v>
+      </c>
+      <c r="P10">
+        <v>1.2</v>
+      </c>
+      <c r="Q10">
+        <v>4.1</v>
+      </c>
+      <c r="R10">
+        <v>2.14</v>
+      </c>
+      <c r="S10">
         <v>1.6</v>
       </c>
-      <c r="P10">
-        <v>1.4</v>
-      </c>
-      <c r="Q10">
-        <v>2.75</v>
-      </c>
-      <c r="R10">
-        <v>1.78</v>
-      </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
       <c r="T10">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="V10">
-        <v>1.33</v>
+        <v>5.4</v>
       </c>
       <c r="W10">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>0.64</v>
       </c>
       <c r="Y10">
-        <v>1.27</v>
+        <v>2.24</v>
       </c>
       <c r="Z10">
-        <v>1.62</v>
+        <v>1.03</v>
       </c>
       <c r="AA10">
-        <v>2.89</v>
+        <v>3.27</v>
       </c>
       <c r="AB10">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2149,19 +2164,19 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G11">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I11">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -2176,10 +2191,10 @@
         <v>2.82</v>
       </c>
       <c r="N11">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="P11">
         <v>1.47</v>
@@ -2218,28 +2233,28 @@
         <v>2.14</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2253,100 +2268,100 @@
         <v>79</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G12">
-        <v>1.11</v>
+        <v>3.07</v>
       </c>
       <c r="H12">
-        <v>5.32</v>
+        <v>3.22</v>
       </c>
       <c r="I12">
-        <v>12.24</v>
+        <v>2.09</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>1.6</v>
+      </c>
+      <c r="P12">
         <v>1.4</v>
       </c>
-      <c r="O12">
-        <v>2.73</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W12">
+        <v>1.67</v>
+      </c>
+      <c r="X12">
         <v>2</v>
       </c>
-      <c r="X12">
-        <v>0.64</v>
-      </c>
       <c r="Y12">
-        <v>2.24</v>
+        <v>1.27</v>
       </c>
       <c r="Z12">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="AA12">
-        <v>3.27</v>
+        <v>2.89</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2363,73 +2378,73 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G13">
-        <v>2.65</v>
+        <v>1.82</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I13">
-        <v>2.3</v>
+        <v>3.55</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N13">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R13">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S13">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y13">
+        <v>1.34</v>
+      </c>
+      <c r="Z13">
         <v>1.2</v>
       </c>
-      <c r="Z13">
-        <v>1.03</v>
-      </c>
       <c r="AA13">
-        <v>2.23</v>
+        <v>2.54</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2470,43 +2485,43 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G14">
         <v>1.8</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I14">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="N14">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O14">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R14">
         <v>1.67</v>
@@ -2515,13 +2530,13 @@
         <v>2.1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
         <v>3</v>
@@ -2530,13 +2545,13 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="Z14">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AA14">
-        <v>2.54</v>
+        <v>3.41</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2577,97 +2592,97 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G15">
+        <v>1.93</v>
+      </c>
+      <c r="H15">
+        <v>3.55</v>
+      </c>
+      <c r="I15">
+        <v>3.25</v>
+      </c>
+      <c r="J15">
+        <v>1.04</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>1.25</v>
+      </c>
+      <c r="M15">
+        <v>3.75</v>
+      </c>
+      <c r="N15">
+        <v>1.7</v>
+      </c>
+      <c r="O15">
+        <v>2.1</v>
+      </c>
+      <c r="P15">
+        <v>1.35</v>
+      </c>
+      <c r="Q15">
+        <v>2.95</v>
+      </c>
+      <c r="R15">
+        <v>1.73</v>
+      </c>
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="H15">
-        <v>3.4</v>
-      </c>
-      <c r="I15">
-        <v>3.1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1.6</v>
-      </c>
-      <c r="O15">
-        <v>2.2</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.62</v>
-      </c>
-      <c r="S15">
-        <v>2.2</v>
-      </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
         <v>1.5</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="Z15">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="AA15">
-        <v>2.86</v>
+        <v>3.08</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2684,73 +2699,73 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G16">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="H16">
         <v>3.5</v>
       </c>
       <c r="I16">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="O16">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R16">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W16">
         <v>1.5</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y16">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="Z16">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="AA16">
-        <v>3.08</v>
+        <v>2.23</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2791,73 +2806,73 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G17">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="N17">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O17">
+        <v>2.1</v>
+      </c>
+      <c r="P17">
+        <v>1.3</v>
+      </c>
+      <c r="Q17">
+        <v>3.25</v>
+      </c>
+      <c r="R17">
+        <v>1.62</v>
+      </c>
+      <c r="S17">
         <v>2.2</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>1.67</v>
-      </c>
-      <c r="S17">
-        <v>2.1</v>
-      </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1.78</v>
+        <v>1.39</v>
       </c>
       <c r="Z17">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AA17">
-        <v>3.41</v>
+        <v>2.86</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2898,19 +2913,19 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G18">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="H18">
-        <v>3.1</v>
+        <v>3.37</v>
       </c>
       <c r="I18">
-        <v>2.55</v>
+        <v>2.16</v>
       </c>
       <c r="J18">
         <v>1.05</v>
@@ -3005,19 +3020,19 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G19">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="H19">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J19">
         <v>1.03</v>
@@ -3032,10 +3047,10 @@
         <v>4.75</v>
       </c>
       <c r="N19">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O19">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="P19">
         <v>1.26</v>
@@ -3083,7 +3098,7 @@
         <v>3.48</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF19">
         <v>1.25</v>
@@ -3112,19 +3127,19 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G20">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H20">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="I20">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J20">
         <v>1.03</v>
@@ -3139,10 +3154,10 @@
         <v>4.5</v>
       </c>
       <c r="N20">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="O20">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="P20">
         <v>1.29</v>
@@ -3219,19 +3234,19 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G21">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>3.2</v>
-      </c>
-      <c r="I21">
-        <v>2.85</v>
       </c>
       <c r="J21">
         <v>1.07</v>
@@ -3249,7 +3264,7 @@
         <v>2.15</v>
       </c>
       <c r="O21">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P21">
         <v>1.44</v>
@@ -3314,7 +3329,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2">
         <v>45163</v>
@@ -3323,105 +3338,105 @@
         <v>82</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G22">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="H22">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I22">
-        <v>3.9</v>
+        <v>1.91</v>
       </c>
       <c r="J22">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="L22">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="O22">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="P22">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="Q22">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="R22">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="T22">
-        <v>1.23</v>
+        <v>1.98</v>
       </c>
       <c r="U22">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y22">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AA22">
-        <v>2.69</v>
+        <v>3.24</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2">
         <v>45163</v>
@@ -3430,76 +3445,76 @@
         <v>82</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G23">
-        <v>3.65</v>
+        <v>1.78</v>
       </c>
       <c r="H23">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I23">
-        <v>1.82</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K23">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N23">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="O23">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="P23">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="Q23">
-        <v>2.91</v>
+        <v>3.1</v>
       </c>
       <c r="R23">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="S23">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="T23">
-        <v>1.98</v>
+        <v>1.23</v>
       </c>
       <c r="U23">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V23">
-        <v>1.22</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Z23">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>3.24</v>
+        <v>2.69</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3540,10 +3555,10 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G24">
         <v>2.95</v>
@@ -3552,46 +3567,46 @@
         <v>3.45</v>
       </c>
       <c r="I24">
+        <v>2.11</v>
+      </c>
+      <c r="J24">
+        <v>1.04</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>1.2</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>1.61</v>
+      </c>
+      <c r="O24">
         <v>2.05</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>1.6</v>
-      </c>
-      <c r="O24">
-        <v>2.2</v>
-      </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R24">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S24">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -3647,58 +3662,58 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G25">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H25">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I25">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="O25">
+        <v>1.8</v>
+      </c>
+      <c r="P25">
+        <v>1.33</v>
+      </c>
+      <c r="Q25">
+        <v>3.25</v>
+      </c>
+      <c r="R25">
+        <v>1.67</v>
+      </c>
+      <c r="S25">
         <v>2.1</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.73</v>
-      </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W25">
         <v>2</v>
@@ -3754,19 +3769,19 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G26">
-        <v>4.1</v>
+        <v>3.78</v>
       </c>
       <c r="H26">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J26">
         <v>1.11</v>
@@ -3778,13 +3793,13 @@
         <v>1.5</v>
       </c>
       <c r="M26">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="N26">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="O26">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="P26">
         <v>1.57</v>
@@ -3858,105 +3873,105 @@
         <v>84</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G27">
-        <v>2.32</v>
+        <v>1.64</v>
       </c>
       <c r="H27">
-        <v>3.53</v>
+        <v>3.75</v>
       </c>
       <c r="I27">
-        <v>2.66</v>
+        <v>4.85</v>
       </c>
       <c r="J27">
         <v>1.02</v>
       </c>
       <c r="K27">
-        <v>18</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L27">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="M27">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="N27">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="O27">
-        <v>2.35</v>
+        <v>1.81</v>
       </c>
       <c r="P27">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="Q27">
-        <v>3.5</v>
+        <v>2.79</v>
       </c>
       <c r="R27">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>1.86</v>
       </c>
       <c r="T27">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="U27">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V27">
-        <v>1.55</v>
+        <v>2.12</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X27">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="Y27">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Z27">
         <v>1.32</v>
       </c>
       <c r="AA27">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2">
         <v>45163</v>
@@ -3968,102 +3983,102 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G28">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="H28">
-        <v>3.42</v>
+        <v>3.15</v>
       </c>
       <c r="I28">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="J28">
         <v>1.03</v>
       </c>
       <c r="K28">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L28">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="M28">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P28">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="R28">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S28">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="T28">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="U28">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V28">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="W28">
         <v>3</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y28">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z28">
-        <v>1.11</v>
+        <v>1.87</v>
       </c>
       <c r="AA28">
-        <v>2.81</v>
+        <v>3.37</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2">
         <v>45163</v>
@@ -4072,105 +4087,105 @@
         <v>84</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G29">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="H29">
-        <v>3.75</v>
+        <v>3.53</v>
       </c>
       <c r="I29">
-        <v>4.85</v>
+        <v>2.66</v>
       </c>
       <c r="J29">
         <v>1.02</v>
       </c>
       <c r="K29">
-        <v>8.699999999999999</v>
+        <v>18</v>
       </c>
       <c r="L29">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="M29">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="N29">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="O29">
-        <v>1.81</v>
+        <v>2.35</v>
       </c>
       <c r="P29">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="Q29">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="S29">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="T29">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="U29">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V29">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="Y29">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="Z29">
         <v>1.32</v>
       </c>
       <c r="AA29">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="AB29">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF29">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2">
         <v>45163</v>
@@ -4182,19 +4197,19 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G30">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="H30">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I30">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J30">
         <v>1.02</v>
@@ -4251,25 +4266,25 @@
         <v>2.36</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AI30">
         <v>2</v>
@@ -4277,7 +4292,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2">
         <v>45163</v>
@@ -4289,10 +4304,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G31">
         <v>2.3</v>
@@ -4358,28 +4373,28 @@
         <v>3.48</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4396,73 +4411,73 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G32">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
       <c r="H32">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="I32">
-        <v>2.45</v>
+        <v>2.13</v>
       </c>
       <c r="J32">
         <v>1.03</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L32">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M32">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="N32">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O32">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P32">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="Q32">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="R32">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="S32">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="T32">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="U32">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V32">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="W32">
         <v>3</v>
       </c>
       <c r="X32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z32">
-        <v>1.87</v>
+        <v>1.11</v>
       </c>
       <c r="AA32">
-        <v>3.37</v>
+        <v>2.81</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4474,24 +4489,24 @@
         <v>0</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2">
         <v>45163</v>
@@ -4503,10 +4518,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G33">
         <v>2.35</v>
@@ -4598,7 +4613,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2">
         <v>45163</v>
@@ -4610,73 +4625,73 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G34">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H34">
-        <v>4.03</v>
+        <v>4.2</v>
       </c>
       <c r="I34">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J34">
         <v>1.03</v>
       </c>
       <c r="K34">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L34">
         <v>1.2</v>
       </c>
       <c r="M34">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="N34">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O34">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P34">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="Q34">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R34">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U34">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="V34">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="Z34">
-        <v>1.38</v>
+        <v>0.64</v>
       </c>
       <c r="AA34">
-        <v>3.01</v>
+        <v>2.46</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4688,24 +4703,24 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2">
         <v>45163</v>
@@ -4714,105 +4729,105 @@
         <v>84</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G35">
+        <v>2.32</v>
+      </c>
+      <c r="H35">
+        <v>2.92</v>
+      </c>
+      <c r="I35">
+        <v>2.92</v>
+      </c>
+      <c r="J35">
+        <v>1.06</v>
+      </c>
+      <c r="K35">
+        <v>6.6</v>
+      </c>
+      <c r="L35">
         <v>1.45</v>
       </c>
-      <c r="H35">
-        <v>4.75</v>
-      </c>
-      <c r="I35">
-        <v>6.5</v>
-      </c>
-      <c r="J35">
-        <v>1.02</v>
-      </c>
-      <c r="K35">
-        <v>20</v>
-      </c>
-      <c r="L35">
-        <v>1.16</v>
-      </c>
       <c r="M35">
-        <v>4.9</v>
+        <v>2.48</v>
       </c>
       <c r="N35">
-        <v>1.52</v>
+        <v>2.36</v>
       </c>
       <c r="O35">
-        <v>2.35</v>
+        <v>1.59</v>
       </c>
       <c r="P35">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="Q35">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="R35">
-        <v>1.64</v>
+        <v>2.03</v>
       </c>
       <c r="S35">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="T35">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="U35">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="V35">
-        <v>2.69</v>
+        <v>1.53</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2">
         <v>45163</v>
@@ -4824,102 +4839,102 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G36">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="H36">
-        <v>4.2</v>
+        <v>3.56</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>3.32</v>
       </c>
       <c r="J36">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L36">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M36">
-        <v>4.33</v>
+        <v>3.82</v>
       </c>
       <c r="N36">
+        <v>1.77</v>
+      </c>
+      <c r="O36">
+        <v>2.05</v>
+      </c>
+      <c r="P36">
+        <v>1.34</v>
+      </c>
+      <c r="Q36">
+        <v>3.1</v>
+      </c>
+      <c r="R36">
+        <v>1.65</v>
+      </c>
+      <c r="S36">
+        <v>2.18</v>
+      </c>
+      <c r="T36">
+        <v>1.33</v>
+      </c>
+      <c r="U36">
+        <v>1.31</v>
+      </c>
+      <c r="V36">
+        <v>1.82</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1.84</v>
+      </c>
+      <c r="Z36">
+        <v>0.58</v>
+      </c>
+      <c r="AA36">
+        <v>2.42</v>
+      </c>
+      <c r="AB36">
         <v>1.62</v>
       </c>
-      <c r="O36">
-        <v>2.2</v>
-      </c>
-      <c r="P36">
-        <v>1.29</v>
-      </c>
-      <c r="Q36">
-        <v>3.5</v>
-      </c>
-      <c r="R36">
-        <v>1.7</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>1.14</v>
-      </c>
-      <c r="U36">
-        <v>1.22</v>
-      </c>
-      <c r="V36">
-        <v>2.3</v>
-      </c>
-      <c r="W36">
-        <v>3</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>1.82</v>
-      </c>
-      <c r="Z36">
-        <v>0.64</v>
-      </c>
-      <c r="AA36">
-        <v>2.46</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
       <c r="AC36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2">
         <v>45163</v>
@@ -4928,105 +4943,105 @@
         <v>84</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G37">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="H37">
-        <v>2.87</v>
+        <v>4.03</v>
       </c>
       <c r="I37">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="J37">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K37">
-        <v>6.6</v>
+        <v>16</v>
       </c>
       <c r="L37">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="M37">
-        <v>2.48</v>
+        <v>4.1</v>
       </c>
       <c r="N37">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="O37">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="P37">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="Q37">
+        <v>3.2</v>
+      </c>
+      <c r="R37">
+        <v>1.75</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
+        <v>1.15</v>
+      </c>
+      <c r="U37">
+        <v>1.19</v>
+      </c>
+      <c r="V37">
+        <v>2.35</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>1.63</v>
+      </c>
+      <c r="Z37">
+        <v>1.38</v>
+      </c>
+      <c r="AA37">
+        <v>3.01</v>
+      </c>
+      <c r="AB37">
+        <v>1.38</v>
+      </c>
+      <c r="AC37">
+        <v>8</v>
+      </c>
+      <c r="AD37">
+        <v>4</v>
+      </c>
+      <c r="AE37">
+        <v>1.18</v>
+      </c>
+      <c r="AF37">
+        <v>1.3</v>
+      </c>
+      <c r="AG37">
+        <v>1.6</v>
+      </c>
+      <c r="AH37">
+        <v>1.95</v>
+      </c>
+      <c r="AI37">
         <v>2.4</v>
-      </c>
-      <c r="R37">
-        <v>2.03</v>
-      </c>
-      <c r="S37">
-        <v>1.7</v>
-      </c>
-      <c r="T37">
-        <v>1.38</v>
-      </c>
-      <c r="U37">
-        <v>1.36</v>
-      </c>
-      <c r="V37">
-        <v>1.53</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>1.76</v>
-      </c>
-      <c r="AC37">
-        <v>8.1</v>
-      </c>
-      <c r="AD37">
-        <v>2.48</v>
-      </c>
-      <c r="AE37">
-        <v>1.49</v>
-      </c>
-      <c r="AF37">
-        <v>1.9</v>
-      </c>
-      <c r="AG37">
-        <v>2.55</v>
-      </c>
-      <c r="AH37">
-        <v>3.7</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2">
         <v>45163</v>
@@ -5038,58 +5053,58 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G38">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="H38">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="I38">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="J38">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K38">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L38">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="M38">
-        <v>3.82</v>
+        <v>4.9</v>
       </c>
       <c r="N38">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="O38">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="P38">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="Q38">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R38">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S38">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T38">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="U38">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="V38">
-        <v>1.82</v>
+        <v>2.69</v>
       </c>
       <c r="W38">
         <v>1</v>
@@ -5098,37 +5113,37 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="Z38">
-        <v>0.58</v>
+        <v>1.52</v>
       </c>
       <c r="AA38">
-        <v>2.42</v>
+        <v>3.92</v>
       </c>
       <c r="AB38">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AF38">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AG38">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="AH38">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="AI38">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -5145,19 +5160,19 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G39">
-        <v>4.33</v>
+        <v>3.46</v>
       </c>
       <c r="H39">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="I39">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="J39">
         <v>1.05</v>
@@ -5175,7 +5190,7 @@
         <v>2.15</v>
       </c>
       <c r="O39">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="P39">
         <v>1.49</v>
@@ -5252,58 +5267,58 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G40">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H40">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I40">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N40">
+        <v>1.8</v>
+      </c>
+      <c r="O40">
+        <v>2.02</v>
+      </c>
+      <c r="P40">
+        <v>1.3</v>
+      </c>
+      <c r="Q40">
+        <v>3.4</v>
+      </c>
+      <c r="R40">
         <v>1.62</v>
       </c>
-      <c r="O40">
-        <v>2.15</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>1.67</v>
-      </c>
       <c r="S40">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -5359,19 +5374,19 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G41">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H41">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I41">
-        <v>2.45</v>
+        <v>1.98</v>
       </c>
       <c r="J41">
         <v>1.04</v>
@@ -5386,10 +5401,10 @@
         <v>4</v>
       </c>
       <c r="N41">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O41">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P41">
         <v>1.33</v>
@@ -5454,7 +5469,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>45163</v>
@@ -5463,105 +5478,105 @@
         <v>86</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G42">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="H42">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="I42">
-        <v>2.85</v>
+        <v>3.16</v>
       </c>
       <c r="J42">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K42">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="L42">
+        <v>1.28</v>
+      </c>
+      <c r="M42">
+        <v>3.5</v>
+      </c>
+      <c r="N42">
+        <v>1.91</v>
+      </c>
+      <c r="O42">
+        <v>1.8</v>
+      </c>
+      <c r="P42">
+        <v>1.39</v>
+      </c>
+      <c r="Q42">
+        <v>2.8</v>
+      </c>
+      <c r="R42">
+        <v>1.72</v>
+      </c>
+      <c r="S42">
+        <v>2.05</v>
+      </c>
+      <c r="T42">
+        <v>1.29</v>
+      </c>
+      <c r="U42">
         <v>1.3</v>
       </c>
-      <c r="M42">
-        <v>3.14</v>
-      </c>
-      <c r="N42">
-        <v>1.95</v>
-      </c>
-      <c r="O42">
-        <v>1.75</v>
-      </c>
-      <c r="P42">
-        <v>1.43</v>
-      </c>
-      <c r="Q42">
-        <v>2.73</v>
-      </c>
-      <c r="R42">
-        <v>1.78</v>
-      </c>
-      <c r="S42">
-        <v>1.9</v>
-      </c>
-      <c r="T42">
-        <v>1.39</v>
-      </c>
-      <c r="U42">
-        <v>1.32</v>
-      </c>
       <c r="V42">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="W42">
         <v>3</v>
       </c>
       <c r="X42">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="Y42">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="Z42">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="AA42">
-        <v>3.01</v>
+        <v>2.69</v>
       </c>
       <c r="AB42">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="AC42">
         <v>8</v>
       </c>
       <c r="AD42">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF42">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AG42">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AH42">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AI42">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2">
         <v>45163</v>
@@ -5570,22 +5585,22 @@
         <v>86</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G43">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="H43">
         <v>3.2</v>
       </c>
       <c r="I43">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J43">
         <v>1.06</v>
@@ -5594,81 +5609,81 @@
         <v>8</v>
       </c>
       <c r="L43">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M43">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N43">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P43">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q43">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R43">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="S43">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T43">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="U43">
         <v>1.3</v>
       </c>
       <c r="V43">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="W43">
-        <v>3</v>
+        <v>0.64</v>
       </c>
       <c r="X43">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="Y43">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="Z43">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AA43">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
       <c r="AB43">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AC43">
         <v>8</v>
       </c>
       <c r="AD43">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG43">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2">
         <v>45163</v>
@@ -5677,105 +5692,105 @@
         <v>86</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G44">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I44">
-        <v>2.55</v>
+        <v>4.25</v>
       </c>
       <c r="J44">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K44">
-        <v>7.5</v>
+        <v>9.6</v>
       </c>
       <c r="L44">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M44">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="N44">
+        <v>2.1</v>
+      </c>
+      <c r="O44">
+        <v>1.67</v>
+      </c>
+      <c r="P44">
+        <v>1.45</v>
+      </c>
+      <c r="Q44">
+        <v>2.6</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.77</v>
+      </c>
+      <c r="T44">
+        <v>1.15</v>
+      </c>
+      <c r="U44">
+        <v>1.25</v>
+      </c>
+      <c r="V44">
         <v>2.05</v>
       </c>
-      <c r="O44">
-        <v>1.7</v>
-      </c>
-      <c r="P44">
-        <v>1.4</v>
-      </c>
-      <c r="Q44">
-        <v>2.75</v>
-      </c>
-      <c r="R44">
-        <v>1.73</v>
-      </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
-      <c r="T44">
-        <v>1.56</v>
-      </c>
-      <c r="U44">
-        <v>1.32</v>
-      </c>
-      <c r="V44">
-        <v>1.42</v>
-      </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="AC44">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD44">
-        <v>1.91</v>
+        <v>3.33</v>
       </c>
       <c r="AE44">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AF44">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AG44">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AH44">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AI44">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>45163</v>
@@ -5787,102 +5802,102 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G45">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="H45">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I45">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N45">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="O45">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R45">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="S45">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W45">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="X45">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>1.23</v>
+        <v>0.79</v>
       </c>
       <c r="Z45">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AA45">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>45163</v>
@@ -5891,40 +5906,40 @@
         <v>86</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F46" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G46">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H46">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I46">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="J46">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K46">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L46">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M46">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="N46">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="O46">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P46">
         <v>1.4</v>
@@ -5933,63 +5948,63 @@
         <v>2.75</v>
       </c>
       <c r="R46">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T46">
+        <v>1.56</v>
+      </c>
+      <c r="U46">
+        <v>1.32</v>
+      </c>
+      <c r="V46">
         <v>1.42</v>
       </c>
-      <c r="U46">
-        <v>1.25</v>
-      </c>
-      <c r="V46">
-        <v>1.44</v>
-      </c>
       <c r="W46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y46">
-        <v>0.79</v>
+        <v>1.57</v>
       </c>
       <c r="Z46">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="AA46">
-        <v>2.44</v>
+        <v>2.97</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH46">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2">
         <v>45163</v>
@@ -6001,58 +6016,58 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F47" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G47">
+        <v>1.49</v>
+      </c>
+      <c r="H47">
+        <v>4.45</v>
+      </c>
+      <c r="I47">
+        <v>5.8</v>
+      </c>
+      <c r="J47">
+        <v>1.02</v>
+      </c>
+      <c r="K47">
+        <v>15</v>
+      </c>
+      <c r="L47">
+        <v>1.19</v>
+      </c>
+      <c r="M47">
+        <v>4.5</v>
+      </c>
+      <c r="N47">
+        <v>1.59</v>
+      </c>
+      <c r="O47">
+        <v>2.35</v>
+      </c>
+      <c r="P47">
+        <v>1.29</v>
+      </c>
+      <c r="Q47">
+        <v>3.5</v>
+      </c>
+      <c r="R47">
         <v>1.7</v>
       </c>
-      <c r="H47">
-        <v>3.2</v>
-      </c>
-      <c r="I47">
-        <v>4.6</v>
-      </c>
-      <c r="J47">
-        <v>1.07</v>
-      </c>
-      <c r="K47">
-        <v>9.6</v>
-      </c>
-      <c r="L47">
-        <v>1.37</v>
-      </c>
-      <c r="M47">
-        <v>3.15</v>
-      </c>
-      <c r="N47">
-        <v>2.15</v>
-      </c>
-      <c r="O47">
-        <v>1.61</v>
-      </c>
-      <c r="P47">
-        <v>1.45</v>
-      </c>
-      <c r="Q47">
-        <v>2.6</v>
-      </c>
-      <c r="R47">
-        <v>2</v>
-      </c>
       <c r="S47">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="T47">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="U47">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V47">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -6070,33 +6085,33 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AC47">
         <v>8.5</v>
       </c>
       <c r="AD47">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="AE47">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AF47">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AG47">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AH47">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AI47">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
         <v>45163</v>
@@ -6105,97 +6120,97 @@
         <v>86</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F48" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G48">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="I48">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="J48">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L48">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="M48">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>2.05</v>
+        <v>1.68</v>
       </c>
       <c r="O48">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="P48">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="Q48">
+        <v>3.4</v>
+      </c>
+      <c r="R48">
+        <v>1.57</v>
+      </c>
+      <c r="S48">
+        <v>2.25</v>
+      </c>
+      <c r="T48">
+        <v>1.38</v>
+      </c>
+      <c r="U48">
+        <v>1.2</v>
+      </c>
+      <c r="V48">
+        <v>1.57</v>
+      </c>
+      <c r="W48">
+        <v>1.5</v>
+      </c>
+      <c r="X48">
+        <v>1.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.23</v>
+      </c>
+      <c r="Z48">
+        <v>1.52</v>
+      </c>
+      <c r="AA48">
         <v>2.75</v>
       </c>
-      <c r="R48">
-        <v>1.79</v>
-      </c>
-      <c r="S48">
-        <v>1.92</v>
-      </c>
-      <c r="T48">
-        <v>1.35</v>
-      </c>
-      <c r="U48">
-        <v>1.3</v>
-      </c>
-      <c r="V48">
-        <v>1.59</v>
-      </c>
-      <c r="W48">
-        <v>0.64</v>
-      </c>
-      <c r="X48">
-        <v>0.92</v>
-      </c>
-      <c r="Y48">
-        <v>1.43</v>
-      </c>
-      <c r="Z48">
-        <v>1.42</v>
-      </c>
-      <c r="AA48">
-        <v>2.85</v>
-      </c>
       <c r="AB48">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE48">
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -6212,100 +6227,100 @@
         <v>86</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F49" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G49">
-        <v>1.45</v>
+        <v>2.42</v>
       </c>
       <c r="H49">
-        <v>4.5</v>
+        <v>3.01</v>
       </c>
       <c r="I49">
-        <v>6.25</v>
+        <v>2.71</v>
       </c>
       <c r="J49">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K49">
-        <v>15</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L49">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="M49">
-        <v>4.5</v>
+        <v>3.14</v>
       </c>
       <c r="N49">
+        <v>2.29</v>
+      </c>
+      <c r="O49">
+        <v>1.63</v>
+      </c>
+      <c r="P49">
+        <v>1.43</v>
+      </c>
+      <c r="Q49">
+        <v>2.73</v>
+      </c>
+      <c r="R49">
+        <v>1.78</v>
+      </c>
+      <c r="S49">
+        <v>1.9</v>
+      </c>
+      <c r="T49">
+        <v>1.39</v>
+      </c>
+      <c r="U49">
+        <v>1.32</v>
+      </c>
+      <c r="V49">
+        <v>1.55</v>
+      </c>
+      <c r="W49">
+        <v>3</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Y49">
+        <v>1.97</v>
+      </c>
+      <c r="Z49">
+        <v>1.04</v>
+      </c>
+      <c r="AA49">
+        <v>3.01</v>
+      </c>
+      <c r="AB49">
+        <v>1.82</v>
+      </c>
+      <c r="AC49">
+        <v>8</v>
+      </c>
+      <c r="AD49">
+        <v>2.39</v>
+      </c>
+      <c r="AE49">
+        <v>1.18</v>
+      </c>
+      <c r="AF49">
+        <v>1.33</v>
+      </c>
+      <c r="AG49">
         <v>1.6</v>
       </c>
-      <c r="O49">
-        <v>2.3</v>
-      </c>
-      <c r="P49">
-        <v>1.29</v>
-      </c>
-      <c r="Q49">
-        <v>3.5</v>
-      </c>
-      <c r="R49">
-        <v>1.7</v>
-      </c>
-      <c r="S49">
+      <c r="AH49">
         <v>2.05</v>
       </c>
-      <c r="T49">
-        <v>1.13</v>
-      </c>
-      <c r="U49">
-        <v>1.22</v>
-      </c>
-      <c r="V49">
-        <v>2.55</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>1.4</v>
-      </c>
-      <c r="AC49">
-        <v>8.5</v>
-      </c>
-      <c r="AD49">
-        <v>3.65</v>
-      </c>
-      <c r="AE49">
-        <v>1.27</v>
-      </c>
-      <c r="AF49">
-        <v>1.5</v>
-      </c>
-      <c r="AG49">
-        <v>1.86</v>
-      </c>
-      <c r="AH49">
-        <v>2.33</v>
-      </c>
       <c r="AI49">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6322,19 +6337,19 @@
         <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G50">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="H50">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I50">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="J50">
         <v>1.06</v>
@@ -6343,13 +6358,13 @@
         <v>8</v>
       </c>
       <c r="L50">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M50">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O50">
         <v>1.75</v>
@@ -6361,63 +6376,63 @@
         <v>2.75</v>
       </c>
       <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
         <v>1.95</v>
       </c>
-      <c r="S50">
-        <v>1.8</v>
-      </c>
       <c r="T50">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="U50">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W50">
-        <v>2.08</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>1.31</v>
+        <v>0.46</v>
       </c>
       <c r="Y50">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="Z50">
+        <v>1.05</v>
+      </c>
+      <c r="AA50">
+        <v>2.73</v>
+      </c>
+      <c r="AB50">
+        <v>1.3</v>
+      </c>
+      <c r="AC50">
+        <v>10</v>
+      </c>
+      <c r="AD50">
+        <v>4.42</v>
+      </c>
+      <c r="AE50">
         <v>1.21</v>
       </c>
-      <c r="AA50">
-        <v>3.17</v>
-      </c>
-      <c r="AB50">
-        <v>1.51</v>
-      </c>
-      <c r="AC50">
-        <v>8.5</v>
-      </c>
-      <c r="AD50">
-        <v>3.16</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2">
         <v>45163</v>
@@ -6426,22 +6441,22 @@
         <v>87</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -6456,22 +6471,22 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -6483,19 +6498,19 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Y51">
-        <v>1.31</v>
+        <v>1.7</v>
       </c>
       <c r="Z51">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AA51">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6536,13 +6551,13 @@
         <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G52">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H52">
         <v>7</v>
@@ -6614,24 +6629,24 @@
         <v>1.11</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG52">
         <v>1.93</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI52">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2">
         <v>45163</v>
@@ -6640,105 +6655,105 @@
         <v>87</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X53">
-        <v>3</v>
+        <v>1.31</v>
       </c>
       <c r="Y53">
-        <v>1.1</v>
+        <v>1.96</v>
       </c>
       <c r="Z53">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="AA53">
-        <v>2.62</v>
+        <v>3.17</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2">
         <v>45163</v>
@@ -6747,76 +6762,76 @@
         <v>87</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F54" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G54">
-        <v>2.45</v>
+        <v>3.9</v>
       </c>
       <c r="H54">
-        <v>2.87</v>
+        <v>3.35</v>
       </c>
       <c r="I54">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="O54">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="P54">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="Q54">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Y54">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="Z54">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="AA54">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -6845,7 +6860,7 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" s="2">
         <v>45163</v>
@@ -6854,85 +6869,85 @@
         <v>87</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F55" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G55">
-        <v>1.85</v>
+        <v>2.65</v>
       </c>
       <c r="H55">
         <v>3.2</v>
       </c>
       <c r="I55">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="J55">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K55">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="L55">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M55">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="N55">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O55">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T55">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="U55">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V55">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X55">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="Z55">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="AA55">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="AB55">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -6964,97 +6979,97 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F56" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G56">
-        <v>3.45</v>
+        <v>1.25</v>
       </c>
       <c r="H56">
-        <v>3.6</v>
+        <v>5.79</v>
       </c>
       <c r="I56">
-        <v>1.95</v>
+        <v>10.35</v>
       </c>
       <c r="J56">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L56">
+        <v>1.16</v>
+      </c>
+      <c r="M56">
+        <v>5.6</v>
+      </c>
+      <c r="N56">
+        <v>1.62</v>
+      </c>
+      <c r="O56">
+        <v>2.31</v>
+      </c>
+      <c r="P56">
+        <v>1.25</v>
+      </c>
+      <c r="Q56">
+        <v>3.75</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.75</v>
+      </c>
+      <c r="T56">
+        <v>1.04</v>
+      </c>
+      <c r="U56">
+        <v>1.12</v>
+      </c>
+      <c r="V56">
+        <v>4.1</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>1.54</v>
+      </c>
+      <c r="Z56">
+        <v>1.06</v>
+      </c>
+      <c r="AA56">
+        <v>2.6</v>
+      </c>
+      <c r="AB56">
         <v>1.22</v>
       </c>
-      <c r="M56">
-        <v>4.33</v>
-      </c>
-      <c r="N56">
-        <v>1.67</v>
-      </c>
-      <c r="O56">
-        <v>2.15</v>
-      </c>
-      <c r="P56">
-        <v>1.3</v>
-      </c>
-      <c r="Q56">
-        <v>3.4</v>
-      </c>
-      <c r="R56">
-        <v>1.62</v>
-      </c>
-      <c r="S56">
-        <v>2.2</v>
-      </c>
-      <c r="T56">
-        <v>1.93</v>
-      </c>
-      <c r="U56">
-        <v>1.25</v>
-      </c>
-      <c r="V56">
-        <v>1.25</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>3</v>
-      </c>
-      <c r="Y56">
-        <v>1.12</v>
-      </c>
-      <c r="Z56">
-        <v>1.52</v>
-      </c>
-      <c r="AA56">
-        <v>2.64</v>
-      </c>
-      <c r="AB56">
-        <v>2.5</v>
-      </c>
       <c r="AC56">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD56">
-        <v>1.71</v>
+        <v>5.6</v>
       </c>
       <c r="AE56">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AF56">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AG56">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="AH56">
+        <v>1.87</v>
+      </c>
+      <c r="AI56">
         <v>2.33</v>
-      </c>
-      <c r="AI56">
-        <v>3.05</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -7071,97 +7086,97 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G57">
-        <v>1.18</v>
+        <v>3.15</v>
       </c>
       <c r="H57">
-        <v>6.75</v>
+        <v>3.46</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>2.17</v>
       </c>
       <c r="J57">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K57">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L57">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M57">
-        <v>5.6</v>
+        <v>4.33</v>
       </c>
       <c r="N57">
+        <v>1.68</v>
+      </c>
+      <c r="O57">
+        <v>2.2</v>
+      </c>
+      <c r="P57">
+        <v>1.3</v>
+      </c>
+      <c r="Q57">
+        <v>3.4</v>
+      </c>
+      <c r="R57">
+        <v>1.62</v>
+      </c>
+      <c r="S57">
+        <v>2.2</v>
+      </c>
+      <c r="T57">
+        <v>1.93</v>
+      </c>
+      <c r="U57">
+        <v>1.25</v>
+      </c>
+      <c r="V57">
+        <v>1.25</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>3</v>
+      </c>
+      <c r="Y57">
+        <v>1.12</v>
+      </c>
+      <c r="Z57">
+        <v>1.52</v>
+      </c>
+      <c r="AA57">
+        <v>2.64</v>
+      </c>
+      <c r="AB57">
+        <v>2.5</v>
+      </c>
+      <c r="AC57">
+        <v>7.5</v>
+      </c>
+      <c r="AD57">
+        <v>1.71</v>
+      </c>
+      <c r="AE57">
+        <v>1.26</v>
+      </c>
+      <c r="AF57">
         <v>1.5</v>
       </c>
-      <c r="O57">
-        <v>2.55</v>
-      </c>
-      <c r="P57">
-        <v>1.25</v>
-      </c>
-      <c r="Q57">
-        <v>3.75</v>
-      </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="S57">
-        <v>1.75</v>
-      </c>
-      <c r="T57">
-        <v>1.04</v>
-      </c>
-      <c r="U57">
-        <v>1.12</v>
-      </c>
-      <c r="V57">
-        <v>4.1</v>
-      </c>
-      <c r="W57">
-        <v>1</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>1.54</v>
-      </c>
-      <c r="Z57">
-        <v>1.06</v>
-      </c>
-      <c r="AA57">
-        <v>2.6</v>
-      </c>
-      <c r="AB57">
-        <v>1.22</v>
-      </c>
-      <c r="AC57">
-        <v>11.5</v>
-      </c>
-      <c r="AD57">
-        <v>5.6</v>
-      </c>
-      <c r="AE57">
-        <v>1.16</v>
-      </c>
-      <c r="AF57">
-        <v>1.29</v>
-      </c>
       <c r="AG57">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="AH57">
-        <v>1.87</v>
+        <v>2.33</v>
       </c>
       <c r="AI57">
-        <v>2.33</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -7178,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F58" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -7285,16 +7300,16 @@
         <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F59" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G59">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H59">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I59">
         <v>3.4</v>
@@ -7312,7 +7327,7 @@
         <v>3.25</v>
       </c>
       <c r="N59">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O59">
         <v>1.8</v>
@@ -7354,13 +7369,13 @@
         <v>3.25</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE59">
         <v>1.23</v>
@@ -7392,19 +7407,19 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F60" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G60">
-        <v>4.5</v>
+        <v>3.36</v>
       </c>
       <c r="H60">
-        <v>3.9</v>
+        <v>3.67</v>
       </c>
       <c r="I60">
-        <v>1.7</v>
+        <v>2.01</v>
       </c>
       <c r="J60">
         <v>1.03</v>
@@ -7419,10 +7434,10 @@
         <v>4.5</v>
       </c>
       <c r="N60">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="O60">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="P60">
         <v>1.3</v>
@@ -7499,19 +7514,19 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G61">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="H61">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="J61">
         <v>1.08</v>
@@ -7526,10 +7541,10 @@
         <v>2.62</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="O61">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="P61">
         <v>1.5</v>
@@ -7589,12 +7604,12 @@
         <v>3.1</v>
       </c>
       <c r="AI61">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B62" s="2">
         <v>45163</v>
@@ -7606,19 +7621,19 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G62">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H62">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I62">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J62">
         <v>1.06</v>
@@ -7633,10 +7648,10 @@
         <v>3.25</v>
       </c>
       <c r="N62">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O62">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P62">
         <v>1.4</v>
@@ -7696,12 +7711,12 @@
         <v>2.7</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B63" s="2">
         <v>45163</v>
@@ -7710,100 +7725,100 @@
         <v>92</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F63" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G63">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="Y63">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AA63">
-        <v>3.26</v>
+        <v>1.8</v>
       </c>
       <c r="AB63">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD63">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE63">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF63">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AG63">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH63">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI63">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -7820,19 +7835,19 @@
         <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F64" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="H64">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="I64">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J64">
         <v>1.1</v>
@@ -7841,10 +7856,10 @@
         <v>6.25</v>
       </c>
       <c r="L64">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M64">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N64">
         <v>2.65</v>
@@ -7889,13 +7904,13 @@
         <v>2.65</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE64">
         <v>0</v>
@@ -7927,10 +7942,10 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F65" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G65">
         <v>3.25</v>
@@ -8005,24 +8020,24 @@
         <v>1.75</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF65">
         <v>1.93</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AI65">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>45163</v>
@@ -8031,100 +8046,100 @@
         <v>92</v>
       </c>
       <c r="D66">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" t="s">
+        <v>228</v>
+      </c>
+      <c r="G66">
+        <v>2.49</v>
+      </c>
+      <c r="H66">
+        <v>3.1</v>
+      </c>
+      <c r="I66">
+        <v>2.65</v>
+      </c>
+      <c r="J66">
+        <v>1.05</v>
+      </c>
+      <c r="K66">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <v>1.33</v>
+      </c>
+      <c r="M66">
+        <v>3.25</v>
+      </c>
+      <c r="N66">
         <v>2</v>
       </c>
-      <c r="E66" t="s">
-        <v>158</v>
-      </c>
-      <c r="F66" t="s">
-        <v>225</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
       <c r="O66">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="Z66">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AA66">
-        <v>1.8</v>
+        <v>3.26</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG66">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI66">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="67" spans="1:35">
@@ -8141,10 +8156,10 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F67" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G67">
         <v>2.15</v>
@@ -8248,19 +8263,19 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F68" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G68">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H68">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I68">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -8275,10 +8290,10 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O68">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -8339,6 +8354,220 @@
       </c>
       <c r="AI68">
         <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45163</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" t="s">
+        <v>231</v>
+      </c>
+      <c r="G69">
+        <v>1.91</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>1.02</v>
+      </c>
+      <c r="K69">
+        <v>8.75</v>
+      </c>
+      <c r="L69">
+        <v>1.39</v>
+      </c>
+      <c r="M69">
+        <v>2.99</v>
+      </c>
+      <c r="N69">
+        <v>2.15</v>
+      </c>
+      <c r="O69">
+        <v>1.67</v>
+      </c>
+      <c r="P69">
+        <v>1.44</v>
+      </c>
+      <c r="Q69">
+        <v>2.63</v>
+      </c>
+      <c r="R69">
+        <v>1.91</v>
+      </c>
+      <c r="S69">
+        <v>1.8</v>
+      </c>
+      <c r="T69">
+        <v>1.22</v>
+      </c>
+      <c r="U69">
+        <v>1.29</v>
+      </c>
+      <c r="V69">
+        <v>1.76</v>
+      </c>
+      <c r="W69">
+        <v>1.14</v>
+      </c>
+      <c r="X69">
+        <v>0.71</v>
+      </c>
+      <c r="Y69">
+        <v>1.47</v>
+      </c>
+      <c r="Z69">
+        <v>1.34</v>
+      </c>
+      <c r="AA69">
+        <v>2.81</v>
+      </c>
+      <c r="AB69">
+        <v>1.75</v>
+      </c>
+      <c r="AC69">
+        <v>8</v>
+      </c>
+      <c r="AD69">
+        <v>2.44</v>
+      </c>
+      <c r="AE69">
+        <v>1.18</v>
+      </c>
+      <c r="AF69">
+        <v>1.39</v>
+      </c>
+      <c r="AG69">
+        <v>1.7</v>
+      </c>
+      <c r="AH69">
+        <v>2.12</v>
+      </c>
+      <c r="AI69">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45163</v>
+      </c>
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" t="s">
+        <v>232</v>
+      </c>
+      <c r="G70">
+        <v>1.5</v>
+      </c>
+      <c r="H70">
+        <v>3.6</v>
+      </c>
+      <c r="I70">
+        <v>6.2</v>
+      </c>
+      <c r="J70">
+        <v>1.1</v>
+      </c>
+      <c r="K70">
+        <v>6.5</v>
+      </c>
+      <c r="L70">
+        <v>1.42</v>
+      </c>
+      <c r="M70">
+        <v>2.7</v>
+      </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
+      <c r="O70">
+        <v>1.53</v>
+      </c>
+      <c r="P70">
+        <v>1.51</v>
+      </c>
+      <c r="Q70">
+        <v>2.4</v>
+      </c>
+      <c r="R70">
+        <v>2.4</v>
+      </c>
+      <c r="S70">
+        <v>1.53</v>
+      </c>
+      <c r="T70">
+        <v>1.06</v>
+      </c>
+      <c r="U70">
+        <v>1.2</v>
+      </c>
+      <c r="V70">
+        <v>2.3</v>
+      </c>
+      <c r="W70">
+        <v>2.58</v>
+      </c>
+      <c r="X70">
+        <v>0.83</v>
+      </c>
+      <c r="Y70">
+        <v>1.58</v>
+      </c>
+      <c r="Z70">
+        <v>1.31</v>
+      </c>
+      <c r="AA70">
+        <v>2.89</v>
+      </c>
+      <c r="AB70">
+        <v>1.38</v>
+      </c>
+      <c r="AC70">
+        <v>8</v>
+      </c>
+      <c r="AD70">
+        <v>4</v>
+      </c>
+      <c r="AE70">
+        <v>1.18</v>
+      </c>
+      <c r="AF70">
+        <v>1.29</v>
+      </c>
+      <c r="AG70">
+        <v>1.5</v>
+      </c>
+      <c r="AH70">
+        <v>1.9</v>
+      </c>
+      <c r="AI70">
+        <v>2.43</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -139,15 +139,15 @@
     <t>Romania Liga I</t>
   </si>
   <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
     <t>Austria 2. Liga</t>
   </si>
   <si>
@@ -169,39 +169,39 @@
     <t>Spain La Liga</t>
   </si>
   <si>
+    <t>Netherlands Eerste Divisie</t>
+  </si>
+  <si>
     <t>Croatia Prva HNL</t>
   </si>
   <si>
     <t>Belgium First Division B</t>
   </si>
   <si>
-    <t>Netherlands Eerste Divisie</t>
+    <t>Turkey Süper Lig</t>
   </si>
   <si>
     <t>Greece Super League</t>
   </si>
   <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
+    <t>Slovakia Super Liga</t>
+  </si>
+  <si>
+    <t>England Championship</t>
+  </si>
+  <si>
+    <t>Germany Bundesliga</t>
+  </si>
+  <si>
     <t>Italy Serie B</t>
   </si>
   <si>
-    <t>Slovakia Super Liga</t>
-  </si>
-  <si>
-    <t>Germany Bundesliga</t>
-  </si>
-  <si>
-    <t>England Championship</t>
-  </si>
-  <si>
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
@@ -223,18 +223,18 @@
     <t>Spain Segunda División</t>
   </si>
   <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
+    <t>Paraguay Division Profesional</t>
   </si>
   <si>
     <t>Belgium Pro League</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -310,12 +310,12 @@
     <t>Jeonbuk Motors</t>
   </si>
   <si>
+    <t>Henan Jianye</t>
+  </si>
+  <si>
     <t>Shenzhen</t>
   </si>
   <si>
-    <t>Henan Jianye</t>
-  </si>
-  <si>
     <t>Orenburg</t>
   </si>
   <si>
@@ -325,30 +325,30 @@
     <t>Oţelul Galaţi</t>
   </si>
   <si>
+    <t>OFK Pirin</t>
+  </si>
+  <si>
+    <t>Stal Mielec</t>
+  </si>
+  <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
-    <t>OFK Pirin</t>
-  </si>
-  <si>
-    <t>Stal Mielec</t>
+    <t>Liefering</t>
   </si>
   <si>
     <t>Admira</t>
   </si>
   <si>
+    <t>SV Stripfing Weiden</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
     <t>Leoben</t>
   </si>
   <si>
-    <t>St. Pölten</t>
-  </si>
-  <si>
-    <t>Liefering</t>
-  </si>
-  <si>
-    <t>SV Stripfing Weiden</t>
-  </si>
-  <si>
     <t>Randers</t>
   </si>
   <si>
@@ -361,99 +361,99 @@
     <t>Radnički Niš</t>
   </si>
   <si>
+    <t>MSV Duisburg</t>
+  </si>
+  <si>
     <t>Fakel</t>
   </si>
   <si>
-    <t>MSV Duisburg</t>
+    <t>Stade Nyonnais</t>
+  </si>
+  <si>
+    <t>UD Las Palmas</t>
   </si>
   <si>
     <t>FC Schaffhausen</t>
   </si>
   <si>
-    <t>Stade Nyonnais</t>
-  </si>
-  <si>
-    <t>UD Las Palmas</t>
+    <t>Dordrecht</t>
   </si>
   <si>
     <t>Gorica</t>
   </si>
   <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
     <t>RFC Seraing</t>
   </si>
   <si>
-    <t>Dordrecht</t>
+    <t>Eindhoven</t>
   </si>
   <si>
     <t>KRC Genk II</t>
   </si>
   <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
     <t>De Graafschap</t>
   </si>
   <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>VVV</t>
+  </si>
+  <si>
     <t>Roda JC</t>
   </si>
   <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
     <t>Panaitolikos</t>
   </si>
   <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
+    <t>Bellinzona</t>
+  </si>
+  <si>
+    <t>Aluminij</t>
   </si>
   <si>
     <t>Hebar 1918</t>
   </si>
   <si>
-    <t>Bellinzona</t>
-  </si>
-  <si>
-    <t>Aluminij</t>
+    <t>Torque</t>
+  </si>
+  <si>
+    <t>Zemplín Michalovce</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>U Craiova 1948</t>
   </si>
   <si>
     <t>Widzew Łódź</t>
   </si>
   <si>
-    <t>Torque</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Zemplín Michalovce</t>
-  </si>
-  <si>
-    <t>U Craiova 1948</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
     <t>Dornbirn</t>
   </si>
   <si>
-    <t>Hull City</t>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>Drogheda United</t>
   </si>
   <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
@@ -484,24 +484,24 @@
     <t>Defensor Sporting</t>
   </si>
   <si>
+    <t>Arsenal de Sarandí</t>
+  </si>
+  <si>
+    <t>Unión La Calera</t>
+  </si>
+  <si>
+    <t>Ponte Preta</t>
+  </si>
+  <si>
     <t>Lecco</t>
   </si>
   <si>
-    <t>Ponte Preta</t>
-  </si>
-  <si>
-    <t>Arsenal de Sarandí</t>
-  </si>
-  <si>
-    <t>Unión La Calera</t>
+    <t>Sportivo Ameliano</t>
   </si>
   <si>
     <t>Royal Antwerp FC</t>
   </si>
   <si>
-    <t>Sportivo Ameliano</t>
-  </si>
-  <si>
     <t>Colón</t>
   </si>
   <si>
@@ -517,12 +517,12 @@
     <t>Daejeon Citizen</t>
   </si>
   <si>
+    <t>Shanghai SIPG</t>
+  </si>
+  <si>
     <t>Shandong Luneng</t>
   </si>
   <si>
-    <t>Shanghai SIPG</t>
-  </si>
-  <si>
     <t>CSKA Moskva</t>
   </si>
   <si>
@@ -532,30 +532,30 @@
     <t>Voluntari</t>
   </si>
   <si>
+    <t>Botev Vratsa</t>
+  </si>
+  <si>
+    <t>Radomiak Radom</t>
+  </si>
+  <si>
     <t>Harju Jalgpallikool</t>
   </si>
   <si>
-    <t>Botev Vratsa</t>
-  </si>
-  <si>
-    <t>Radomiak Radom</t>
+    <t>Ried</t>
   </si>
   <si>
     <t>Amstetten</t>
   </si>
   <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>Floridsdorfer AC</t>
+  </si>
+  <si>
     <t>First Vienna</t>
   </si>
   <si>
-    <t>Floridsdorfer AC</t>
-  </si>
-  <si>
-    <t>Ried</t>
-  </si>
-  <si>
-    <t>Horn</t>
-  </si>
-  <si>
     <t>Viborg</t>
   </si>
   <si>
@@ -568,99 +568,99 @@
     <t>Radnički Kragujevac</t>
   </si>
   <si>
+    <t>Ulm</t>
+  </si>
+  <si>
     <t>Krasnodar</t>
   </si>
   <si>
-    <t>Ulm</t>
+    <t>Sion</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
   </si>
   <si>
     <t>Aarau</t>
   </si>
   <si>
-    <t>Sion</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
+    <t>MVV</t>
   </si>
   <si>
     <t>Slaven Koprivnica</t>
   </si>
   <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
     <t>Zulte-Waregem</t>
   </si>
   <si>
-    <t>MVV</t>
+    <t>NAC Breda</t>
   </si>
   <si>
     <t>Club Brugge II</t>
   </si>
   <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
     <t>Emmen</t>
   </si>
   <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
     <t>Oss</t>
   </si>
   <si>
+    <t>Gazişehir Gaziantep</t>
+  </si>
+  <si>
     <t>PAS Giannina</t>
   </si>
   <si>
-    <t>Gazişehir Gaziantep</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>Ajax II</t>
+    <t>Thun</t>
+  </si>
+  <si>
+    <t>Mura</t>
   </si>
   <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
-    <t>Thun</t>
-  </si>
-  <si>
-    <t>Mura</t>
+    <t>Fénix</t>
+  </si>
+  <si>
+    <t>FK Košice</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Rapid Bucureşti</t>
   </si>
   <si>
     <t>Śląsk Wrocław</t>
   </si>
   <si>
-    <t>Fénix</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>FK Košice</t>
-  </si>
-  <si>
-    <t>Rapid Bucureşti</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
     <t>Schwarz-Weiß Bregenz</t>
   </si>
   <si>
-    <t>Bristol City</t>
+    <t>Derry City</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
   </si>
   <si>
     <t>Cork City</t>
   </si>
   <si>
-    <t>Derry City</t>
-  </si>
-  <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
     <t>Dundalk</t>
   </si>
   <si>
@@ -691,22 +691,22 @@
     <t>Wanderers</t>
   </si>
   <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
+    <t>Universidad Chile</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
     <t>Spezia</t>
   </si>
   <si>
-    <t>Londrina</t>
-  </si>
-  <si>
-    <t>Argentinos Juniors</t>
-  </si>
-  <si>
-    <t>Universidad Chile</t>
+    <t>Guaireña</t>
   </si>
   <si>
     <t>KAA Gent</t>
-  </si>
-  <si>
-    <t>Guaireña</t>
   </si>
   <si>
     <t>Gimnasia La Plata</t>
@@ -1207,13 +1207,13 @@
         <v>164</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -1228,7 +1228,7 @@
         <v>3.8</v>
       </c>
       <c r="N2">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="O2">
         <v>2.05</v>
@@ -1255,10 +1255,10 @@
         <v>1.36</v>
       </c>
       <c r="W2">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="X2">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="Y2">
         <v>1.48</v>
@@ -1314,13 +1314,13 @@
         <v>165</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1335,10 +1335,10 @@
         <v>3.3</v>
       </c>
       <c r="N3">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="O3">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="P3">
         <v>1.39</v>
@@ -1362,10 +1362,10 @@
         <v>1.33</v>
       </c>
       <c r="W3">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="Y3">
         <v>1.52</v>
@@ -1421,13 +1421,13 @@
         <v>166</v>
       </c>
       <c r="G4">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H4">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I4">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1442,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O4">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="P4">
         <v>1.36</v>
@@ -1469,7 +1469,7 @@
         <v>1.95</v>
       </c>
       <c r="W4">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -1528,91 +1528,91 @@
         <v>167</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>5.65</v>
       </c>
       <c r="H5">
-        <v>11.4</v>
+        <v>4.4</v>
       </c>
       <c r="I5">
-        <v>1.09</v>
+        <v>1.53</v>
       </c>
       <c r="J5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K5">
-        <v>45</v>
+        <v>18.5</v>
       </c>
       <c r="L5">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="M5">
-        <v>8.800000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="N5">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="P5">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="Q5">
-        <v>4.8</v>
+        <v>3.34</v>
       </c>
       <c r="R5">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
       <c r="S5">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="T5">
-        <v>6.85</v>
+        <v>2.48</v>
       </c>
       <c r="U5">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="V5">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W5">
-        <v>0.91</v>
+        <v>1.67</v>
       </c>
       <c r="X5">
-        <v>1.09</v>
+        <v>2.42</v>
       </c>
       <c r="Y5">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="Z5">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AA5">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AB5">
-        <v>8</v>
+        <v>2.91</v>
       </c>
       <c r="AC5">
-        <v>13</v>
+        <v>8.9</v>
       </c>
       <c r="AD5">
-        <v>1.1</v>
+        <v>1.57</v>
       </c>
       <c r="AE5">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AF5">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AG5">
         <v>2.12</v>
       </c>
       <c r="AH5">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="AI5">
-        <v>3.9</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1635,91 +1635,91 @@
         <v>168</v>
       </c>
       <c r="G6">
-        <v>5.65</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="J6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K6">
-        <v>18.5</v>
+        <v>45</v>
       </c>
       <c r="L6">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="M6">
-        <v>4.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="N6">
-        <v>1.66</v>
+        <v>1.16</v>
       </c>
       <c r="O6">
-        <v>2.25</v>
+        <v>4.21</v>
       </c>
       <c r="P6">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="Q6">
-        <v>3.34</v>
+        <v>4.8</v>
       </c>
       <c r="R6">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="S6">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="T6">
-        <v>2.48</v>
+        <v>6.85</v>
       </c>
       <c r="U6">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="V6">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W6">
-        <v>1.55</v>
+        <v>0.83</v>
       </c>
       <c r="X6">
-        <v>2.64</v>
+        <v>1.25</v>
       </c>
       <c r="Y6">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="Z6">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AA6">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AB6">
-        <v>2.91</v>
+        <v>8</v>
       </c>
       <c r="AC6">
-        <v>8.9</v>
+        <v>13</v>
       </c>
       <c r="AD6">
-        <v>1.57</v>
+        <v>1.1</v>
       </c>
       <c r="AE6">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AF6">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AG6">
         <v>2.12</v>
       </c>
       <c r="AH6">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AI6">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1742,13 +1742,13 @@
         <v>169</v>
       </c>
       <c r="G7">
-        <v>3.65</v>
+        <v>3.43</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
+        <v>3.69</v>
       </c>
       <c r="I7">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>4.55</v>
       </c>
       <c r="N7">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="O7">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="P7">
         <v>1.28</v>
@@ -1849,13 +1849,13 @@
         <v>170</v>
       </c>
       <c r="G8">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="H8">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="J8">
         <v>1.04</v>
@@ -1873,7 +1873,7 @@
         <v>1.73</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="P8">
         <v>1.33</v>
@@ -1956,13 +1956,13 @@
         <v>171</v>
       </c>
       <c r="G9">
-        <v>2.7</v>
+        <v>2.81</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="I9">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -1977,10 +1977,10 @@
         <v>2.43</v>
       </c>
       <c r="N9">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="O9">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="P9">
         <v>1.52</v>
@@ -2054,7 +2054,7 @@
         <v>79</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>103</v>
@@ -2063,91 +2063,91 @@
         <v>172</v>
       </c>
       <c r="G10">
+        <v>2.17</v>
+      </c>
+      <c r="H10">
+        <v>3.1</v>
+      </c>
+      <c r="I10">
+        <v>2.89</v>
+      </c>
+      <c r="J10">
+        <v>1.04</v>
+      </c>
+      <c r="K10">
+        <v>7.6</v>
+      </c>
+      <c r="L10">
+        <v>1.36</v>
+      </c>
+      <c r="M10">
+        <v>2.82</v>
+      </c>
+      <c r="N10">
+        <v>2.12</v>
+      </c>
+      <c r="O10">
+        <v>1.52</v>
+      </c>
+      <c r="P10">
+        <v>1.47</v>
+      </c>
+      <c r="Q10">
+        <v>2.58</v>
+      </c>
+      <c r="R10">
+        <v>1.92</v>
+      </c>
+      <c r="S10">
+        <v>1.82</v>
+      </c>
+      <c r="T10">
+        <v>1.31</v>
+      </c>
+      <c r="U10">
+        <v>1.33</v>
+      </c>
+      <c r="V10">
+        <v>1.71</v>
+      </c>
+      <c r="W10">
+        <v>0.33</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>1.14</v>
       </c>
-      <c r="H10">
-        <v>7.3</v>
-      </c>
-      <c r="I10">
-        <v>11.01</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>28.5</v>
-      </c>
-      <c r="L10">
-        <v>1.09</v>
-      </c>
-      <c r="M10">
-        <v>5.8</v>
-      </c>
-      <c r="N10">
-        <v>1.36</v>
-      </c>
-      <c r="O10">
-        <v>2.89</v>
-      </c>
-      <c r="P10">
-        <v>1.2</v>
-      </c>
-      <c r="Q10">
-        <v>4.1</v>
-      </c>
-      <c r="R10">
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
         <v>2.14</v>
       </c>
-      <c r="S10">
-        <v>1.6</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>1.04</v>
-      </c>
-      <c r="V10">
-        <v>5.4</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <v>0.64</v>
-      </c>
-      <c r="Y10">
-        <v>2.24</v>
-      </c>
-      <c r="Z10">
-        <v>1.03</v>
-      </c>
-      <c r="AA10">
-        <v>3.27</v>
-      </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2161,7 +2161,7 @@
         <v>79</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>104</v>
@@ -2170,91 +2170,91 @@
         <v>173</v>
       </c>
       <c r="G11">
-        <v>2.18</v>
+        <v>2.83</v>
       </c>
       <c r="H11">
         <v>3.15</v>
       </c>
       <c r="I11">
-        <v>2.91</v>
+        <v>2.43</v>
       </c>
       <c r="J11">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K11">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M11">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="O11">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="P11">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q11">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="R11">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="S11">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="U11">
+        <v>1.3</v>
+      </c>
+      <c r="V11">
         <v>1.33</v>
       </c>
-      <c r="V11">
-        <v>1.71</v>
-      </c>
       <c r="W11">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="AA11">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="AB11">
-        <v>1.7</v>
+        <v>2.54</v>
       </c>
       <c r="AC11">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD11">
-        <v>2.58</v>
+        <v>1.69</v>
       </c>
       <c r="AE11">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="AF11">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AG11">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AH11">
-        <v>3.14</v>
+        <v>2.16</v>
       </c>
       <c r="AI11">
-        <v>4.4</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2268,7 +2268,7 @@
         <v>79</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>105</v>
@@ -2277,91 +2277,91 @@
         <v>174</v>
       </c>
       <c r="G12">
-        <v>3.07</v>
+        <v>1.08</v>
       </c>
       <c r="H12">
-        <v>3.22</v>
+        <v>7.3</v>
       </c>
       <c r="I12">
-        <v>2.09</v>
+        <v>13.8</v>
       </c>
       <c r="J12">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>28.5</v>
       </c>
       <c r="L12">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>1.31</v>
       </c>
       <c r="O12">
+        <v>2.71</v>
+      </c>
+      <c r="P12">
+        <v>1.2</v>
+      </c>
+      <c r="Q12">
+        <v>4.1</v>
+      </c>
+      <c r="R12">
+        <v>2.14</v>
+      </c>
+      <c r="S12">
         <v>1.6</v>
       </c>
-      <c r="P12">
-        <v>1.4</v>
-      </c>
-      <c r="Q12">
-        <v>2.75</v>
-      </c>
-      <c r="R12">
-        <v>1.78</v>
-      </c>
-      <c r="S12">
-        <v>1.95</v>
-      </c>
       <c r="T12">
-        <v>1.65</v>
+        <v>1.02</v>
       </c>
       <c r="U12">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="V12">
-        <v>1.33</v>
+        <v>5.4</v>
       </c>
       <c r="W12">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>0.64</v>
       </c>
       <c r="Y12">
-        <v>1.27</v>
+        <v>2.24</v>
       </c>
       <c r="Z12">
-        <v>1.62</v>
+        <v>1.03</v>
       </c>
       <c r="AA12">
-        <v>2.89</v>
+        <v>3.27</v>
       </c>
       <c r="AB12">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>2.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2384,13 +2384,13 @@
         <v>175</v>
       </c>
       <c r="G13">
-        <v>1.82</v>
+        <v>2.76</v>
       </c>
       <c r="H13">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I13">
-        <v>3.55</v>
+        <v>2.19</v>
       </c>
       <c r="J13">
         <v>1.04</v>
@@ -2402,13 +2402,13 @@
         <v>1.2</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="N13">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="O13">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="P13">
         <v>1.3</v>
@@ -2417,58 +2417,58 @@
         <v>3.25</v>
       </c>
       <c r="R13">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S13">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="U13">
         <v>1.2</v>
       </c>
       <c r="V13">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="W13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y13">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="Z13">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="AA13">
-        <v>2.54</v>
+        <v>2.23</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2491,16 +2491,16 @@
         <v>176</v>
       </c>
       <c r="G14">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H14">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I14">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J14">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -2509,13 +2509,13 @@
         <v>1.2</v>
       </c>
       <c r="M14">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="O14">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="P14">
         <v>1.3</v>
@@ -2524,10 +2524,10 @@
         <v>3.25</v>
       </c>
       <c r="R14">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S14">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>1.2</v>
@@ -2536,7 +2536,7 @@
         <v>1.2</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W14">
         <v>3</v>
@@ -2545,37 +2545,37 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="Z14">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AA14">
-        <v>3.41</v>
+        <v>2.54</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2598,13 +2598,13 @@
         <v>177</v>
       </c>
       <c r="G15">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="H15">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I15">
-        <v>3.25</v>
+        <v>2.59</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2613,76 +2613,76 @@
         <v>10</v>
       </c>
       <c r="L15">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="O15">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="P15">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="Q15">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="R15">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="T15">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U15">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>1.5</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="Z15">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="AA15">
-        <v>3.08</v>
+        <v>2.86</v>
       </c>
       <c r="AB15">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AC15">
         <v>7</v>
       </c>
       <c r="AD15">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AE15">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AF15">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="AG15">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AH15">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AI15">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2705,13 +2705,13 @@
         <v>178</v>
       </c>
       <c r="G16">
-        <v>2.6</v>
+        <v>1.84</v>
       </c>
       <c r="H16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16">
-        <v>2.3</v>
+        <v>3.55</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -2720,76 +2720,76 @@
         <v>10</v>
       </c>
       <c r="L16">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M16">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="O16">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="P16">
+        <v>1.35</v>
+      </c>
+      <c r="Q16">
+        <v>2.95</v>
+      </c>
+      <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>1.91</v>
+      </c>
+      <c r="T16">
         <v>1.3</v>
       </c>
-      <c r="Q16">
-        <v>3.25</v>
-      </c>
-      <c r="R16">
-        <v>1.57</v>
-      </c>
-      <c r="S16">
-        <v>2.25</v>
-      </c>
-      <c r="T16">
-        <v>1.5</v>
-      </c>
       <c r="U16">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V16">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>1.5</v>
       </c>
       <c r="X16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="Z16">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="AA16">
-        <v>2.23</v>
+        <v>3.08</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2812,16 +2812,16 @@
         <v>179</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="H17">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I17">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="J17">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K17">
         <v>10</v>
@@ -2833,10 +2833,10 @@
         <v>4.33</v>
       </c>
       <c r="N17">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="O17">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="P17">
         <v>1.3</v>
@@ -2851,52 +2851,52 @@
         <v>2.2</v>
       </c>
       <c r="T17">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U17">
         <v>1.2</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="Z17">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AA17">
-        <v>2.86</v>
+        <v>3.41</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2919,13 +2919,13 @@
         <v>180</v>
       </c>
       <c r="G18">
-        <v>2.82</v>
+        <v>2.43</v>
       </c>
       <c r="H18">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="I18">
-        <v>2.16</v>
+        <v>2.53</v>
       </c>
       <c r="J18">
         <v>1.05</v>
@@ -2940,10 +2940,10 @@
         <v>3.78</v>
       </c>
       <c r="N18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P18">
         <v>1.38</v>
@@ -3026,13 +3026,13 @@
         <v>181</v>
       </c>
       <c r="G19">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H19">
         <v>3.85</v>
       </c>
       <c r="I19">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="J19">
         <v>1.03</v>
@@ -3047,10 +3047,10 @@
         <v>4.75</v>
       </c>
       <c r="N19">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="O19">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="P19">
         <v>1.26</v>
@@ -3133,13 +3133,13 @@
         <v>182</v>
       </c>
       <c r="G20">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H20">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I20">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J20">
         <v>1.03</v>
@@ -3154,10 +3154,10 @@
         <v>4.5</v>
       </c>
       <c r="N20">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="O20">
-        <v>2.14</v>
+        <v>2.01</v>
       </c>
       <c r="P20">
         <v>1.29</v>
@@ -3240,13 +3240,13 @@
         <v>183</v>
       </c>
       <c r="G21">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I21">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J21">
         <v>1.07</v>
@@ -3261,10 +3261,10 @@
         <v>3.02</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="O21">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P21">
         <v>1.44</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
         <v>45163</v>
@@ -3338,7 +3338,7 @@
         <v>82</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>115</v>
@@ -3347,96 +3347,96 @@
         <v>184</v>
       </c>
       <c r="G22">
-        <v>3.6</v>
+        <v>1.77</v>
       </c>
       <c r="H22">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I22">
-        <v>1.91</v>
+        <v>4.05</v>
       </c>
       <c r="J22">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K22">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N22">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="O22">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="Q22">
-        <v>2.91</v>
+        <v>3.1</v>
       </c>
       <c r="R22">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="S22">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
-        <v>1.98</v>
+        <v>1.23</v>
       </c>
       <c r="U22">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V22">
-        <v>1.22</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Z22">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>3.24</v>
+        <v>2.69</v>
       </c>
       <c r="AB22">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="AC22">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="AD22">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AE22">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AF22">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AG22">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="AH22">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="AI22">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
         <v>45163</v>
@@ -3445,7 +3445,7 @@
         <v>82</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>116</v>
@@ -3454,91 +3454,91 @@
         <v>185</v>
       </c>
       <c r="G23">
-        <v>1.78</v>
+        <v>3.06</v>
       </c>
       <c r="H23">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>2.19</v>
       </c>
       <c r="J23">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="L23">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="O23">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="P23">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="Q23">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="R23">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="T23">
-        <v>1.23</v>
+        <v>1.98</v>
       </c>
       <c r="U23">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y23">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AA23">
-        <v>2.69</v>
+        <v>3.24</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3561,13 +3561,13 @@
         <v>186</v>
       </c>
       <c r="G24">
-        <v>2.95</v>
+        <v>4.9</v>
       </c>
       <c r="H24">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I24">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="J24">
         <v>1.04</v>
@@ -3576,16 +3576,16 @@
         <v>10</v>
       </c>
       <c r="L24">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M24">
         <v>4</v>
       </c>
       <c r="N24">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="O24">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="P24">
         <v>1.33</v>
@@ -3594,63 +3594,63 @@
         <v>3.25</v>
       </c>
       <c r="R24">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S24">
+        <v>2.1</v>
+      </c>
+      <c r="T24">
+        <v>1.83</v>
+      </c>
+      <c r="U24">
+        <v>1.2</v>
+      </c>
+      <c r="V24">
+        <v>1.2</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>1.33</v>
+      </c>
+      <c r="Z24">
+        <v>1.82</v>
+      </c>
+      <c r="AA24">
+        <v>3.15</v>
+      </c>
+      <c r="AB24">
+        <v>3.5</v>
+      </c>
+      <c r="AC24">
+        <v>8</v>
+      </c>
+      <c r="AD24">
+        <v>1.45</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>1.31</v>
+      </c>
+      <c r="AG24">
+        <v>1.83</v>
+      </c>
+      <c r="AH24">
+        <v>1.8</v>
+      </c>
+      <c r="AI24">
         <v>2.25</v>
-      </c>
-      <c r="T24">
-        <v>1.63</v>
-      </c>
-      <c r="U24">
-        <v>1.22</v>
-      </c>
-      <c r="V24">
-        <v>1.28</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>1.5</v>
-      </c>
-      <c r="Y24">
-        <v>1.41</v>
-      </c>
-      <c r="Z24">
-        <v>1.13</v>
-      </c>
-      <c r="AA24">
-        <v>2.54</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2">
         <v>45163</v>
@@ -3659,7 +3659,7 @@
         <v>83</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
         <v>118</v>
@@ -3668,96 +3668,96 @@
         <v>187</v>
       </c>
       <c r="G25">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H25">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="I25">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="J25">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.43</v>
       </c>
       <c r="N25">
-        <v>2.02</v>
+        <v>2.47</v>
       </c>
       <c r="O25">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="P25">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="Q25">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="R25">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="S25">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="T25">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="U25">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="V25">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1.33</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z25">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>3.15</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2">
         <v>45163</v>
@@ -3766,7 +3766,7 @@
         <v>83</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>119</v>
@@ -3775,91 +3775,91 @@
         <v>188</v>
       </c>
       <c r="G26">
-        <v>3.78</v>
+        <v>3.1</v>
       </c>
       <c r="H26">
-        <v>3.16</v>
+        <v>3.45</v>
       </c>
       <c r="I26">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="J26">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="K26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L26">
+        <v>1.2</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.7</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>1.33</v>
+      </c>
+      <c r="Q26">
+        <v>3.25</v>
+      </c>
+      <c r="R26">
+        <v>1.57</v>
+      </c>
+      <c r="S26">
+        <v>2.25</v>
+      </c>
+      <c r="T26">
+        <v>1.63</v>
+      </c>
+      <c r="U26">
+        <v>1.22</v>
+      </c>
+      <c r="V26">
+        <v>1.28</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
         <v>1.5</v>
       </c>
-      <c r="M26">
-        <v>2.45</v>
-      </c>
-      <c r="N26">
-        <v>2.47</v>
-      </c>
-      <c r="O26">
-        <v>1.54</v>
-      </c>
-      <c r="P26">
-        <v>1.57</v>
-      </c>
-      <c r="Q26">
-        <v>2.25</v>
-      </c>
-      <c r="R26">
-        <v>2.2</v>
-      </c>
-      <c r="S26">
-        <v>1.62</v>
-      </c>
-      <c r="T26">
-        <v>1.77</v>
-      </c>
-      <c r="U26">
-        <v>1.34</v>
-      </c>
-      <c r="V26">
-        <v>1.24</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
       <c r="Y26">
-        <v>0.6899999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AA26">
-        <v>0.6899999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="AB26">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AC26">
         <v>7</v>
       </c>
       <c r="AD26">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AE26">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="AG26">
-        <v>2.28</v>
+        <v>1.48</v>
       </c>
       <c r="AH26">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="AI26">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3873,7 +3873,7 @@
         <v>84</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
         <v>120</v>
@@ -3882,91 +3882,91 @@
         <v>189</v>
       </c>
       <c r="G27">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="H27">
-        <v>3.75</v>
+        <v>3.53</v>
       </c>
       <c r="I27">
-        <v>4.85</v>
+        <v>2.66</v>
       </c>
       <c r="J27">
         <v>1.02</v>
       </c>
       <c r="K27">
-        <v>8.699999999999999</v>
+        <v>18</v>
       </c>
       <c r="L27">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="M27">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="N27">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="O27">
-        <v>1.81</v>
+        <v>2.35</v>
       </c>
       <c r="P27">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="Q27">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="S27">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="U27">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V27">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="Y27">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="Z27">
         <v>1.32</v>
       </c>
       <c r="AA27">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="AB27">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="AC27">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD27">
-        <v>3.33</v>
+        <v>2.16</v>
       </c>
       <c r="AE27">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="AF27">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="AG27">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="AH27">
-        <v>3.18</v>
+        <v>2.02</v>
       </c>
       <c r="AI27">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
         <v>121</v>
@@ -3989,96 +3989,96 @@
         <v>190</v>
       </c>
       <c r="G28">
-        <v>2.5</v>
+        <v>1.64</v>
       </c>
       <c r="H28">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="I28">
-        <v>2.5</v>
+        <v>4.85</v>
       </c>
       <c r="J28">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L28">
+        <v>1.33</v>
+      </c>
+      <c r="M28">
+        <v>3.2</v>
+      </c>
+      <c r="N28">
+        <v>1.92</v>
+      </c>
+      <c r="O28">
+        <v>1.81</v>
+      </c>
+      <c r="P28">
+        <v>1.41</v>
+      </c>
+      <c r="Q28">
+        <v>2.79</v>
+      </c>
+      <c r="R28">
+        <v>1.9</v>
+      </c>
+      <c r="S28">
+        <v>1.86</v>
+      </c>
+      <c r="T28">
         <v>1.18</v>
       </c>
-      <c r="M28">
-        <v>4.3</v>
-      </c>
-      <c r="N28">
-        <v>1.62</v>
-      </c>
-      <c r="O28">
-        <v>2.25</v>
-      </c>
-      <c r="P28">
+      <c r="U28">
+        <v>1.27</v>
+      </c>
+      <c r="V28">
+        <v>2.12</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>0.33</v>
+      </c>
+      <c r="Y28">
+        <v>1.73</v>
+      </c>
+      <c r="Z28">
         <v>1.32</v>
       </c>
-      <c r="Q28">
-        <v>3.15</v>
-      </c>
-      <c r="R28">
-        <v>1.5</v>
-      </c>
-      <c r="S28">
-        <v>2.4</v>
-      </c>
-      <c r="T28">
+      <c r="AA28">
+        <v>3.05</v>
+      </c>
+      <c r="AB28">
+        <v>1.45</v>
+      </c>
+      <c r="AC28">
+        <v>8.5</v>
+      </c>
+      <c r="AD28">
+        <v>3.33</v>
+      </c>
+      <c r="AE28">
         <v>1.44</v>
       </c>
-      <c r="U28">
-        <v>1.3</v>
-      </c>
-      <c r="V28">
-        <v>1.44</v>
-      </c>
-      <c r="W28">
-        <v>3</v>
-      </c>
-      <c r="X28">
-        <v>3</v>
-      </c>
-      <c r="Y28">
-        <v>1.5</v>
-      </c>
-      <c r="Z28">
-        <v>1.87</v>
-      </c>
-      <c r="AA28">
-        <v>3.37</v>
-      </c>
-      <c r="AB28">
-        <v>2.09</v>
-      </c>
-      <c r="AC28">
-        <v>9</v>
-      </c>
-      <c r="AD28">
-        <v>1.94</v>
-      </c>
-      <c r="AE28">
-        <v>1.2</v>
-      </c>
       <c r="AF28">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="AG28">
-        <v>1.63</v>
+        <v>2.34</v>
       </c>
       <c r="AH28">
-        <v>2.03</v>
+        <v>3.18</v>
       </c>
       <c r="AI28">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2">
         <v>45163</v>
@@ -4096,96 +4096,96 @@
         <v>191</v>
       </c>
       <c r="G29">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="H29">
-        <v>3.53</v>
+        <v>3.42</v>
       </c>
       <c r="I29">
-        <v>2.66</v>
+        <v>2.13</v>
       </c>
       <c r="J29">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K29">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L29">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="M29">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O29">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="P29">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>1.62</v>
+      </c>
+      <c r="S29">
+        <v>2.15</v>
+      </c>
+      <c r="T29">
+        <v>1.65</v>
+      </c>
+      <c r="U29">
+        <v>1.27</v>
+      </c>
+      <c r="V29">
+        <v>1.35</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1.7</v>
+      </c>
+      <c r="Z29">
+        <v>1.11</v>
+      </c>
+      <c r="AA29">
+        <v>2.81</v>
+      </c>
+      <c r="AB29">
+        <v>2.17</v>
+      </c>
+      <c r="AC29">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD29">
+        <v>1.93</v>
+      </c>
+      <c r="AE29">
+        <v>1.29</v>
+      </c>
+      <c r="AF29">
+        <v>1.53</v>
+      </c>
+      <c r="AG29">
+        <v>1.92</v>
+      </c>
+      <c r="AH29">
+        <v>2.55</v>
+      </c>
+      <c r="AI29">
         <v>3.5</v>
-      </c>
-      <c r="R29">
-        <v>1.48</v>
-      </c>
-      <c r="S29">
-        <v>2.5</v>
-      </c>
-      <c r="T29">
-        <v>1.45</v>
-      </c>
-      <c r="U29">
-        <v>1.25</v>
-      </c>
-      <c r="V29">
-        <v>1.55</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>3</v>
-      </c>
-      <c r="Y29">
-        <v>1.66</v>
-      </c>
-      <c r="Z29">
-        <v>1.32</v>
-      </c>
-      <c r="AA29">
-        <v>2.98</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>1.18</v>
-      </c>
-      <c r="AF29">
-        <v>1.34</v>
-      </c>
-      <c r="AG29">
-        <v>1.61</v>
-      </c>
-      <c r="AH29">
-        <v>2.02</v>
-      </c>
-      <c r="AI29">
-        <v>2.7</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2">
         <v>45163</v>
@@ -4203,96 +4203,96 @@
         <v>192</v>
       </c>
       <c r="G30">
-        <v>1.81</v>
+        <v>2.34</v>
       </c>
       <c r="H30">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I30">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="J30">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K30">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="M30">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="N30">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="O30">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="P30">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="Q30">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="R30">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="S30">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="T30">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="U30">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="W30">
         <v>3</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y30">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="Z30">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="AA30">
-        <v>2.36</v>
+        <v>3.37</v>
       </c>
       <c r="AB30">
-        <v>1.45</v>
+        <v>2.09</v>
       </c>
       <c r="AC30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD30">
-        <v>3.5</v>
+        <v>1.94</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF30">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AG30">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="AH30">
-        <v>1.59</v>
+        <v>2.03</v>
       </c>
       <c r="AI30">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2">
         <v>45163</v>
@@ -4417,96 +4417,96 @@
         <v>194</v>
       </c>
       <c r="G32">
-        <v>3.05</v>
+        <v>1.68</v>
       </c>
       <c r="H32">
-        <v>3.42</v>
+        <v>3.8</v>
       </c>
       <c r="I32">
-        <v>2.13</v>
+        <v>3.7</v>
       </c>
       <c r="J32">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K32">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L32">
+        <v>1.13</v>
+      </c>
+      <c r="M32">
+        <v>5.8</v>
+      </c>
+      <c r="N32">
+        <v>1.37</v>
+      </c>
+      <c r="O32">
+        <v>2.5</v>
+      </c>
+      <c r="P32">
         <v>1.23</v>
       </c>
-      <c r="M32">
-        <v>3.8</v>
-      </c>
-      <c r="N32">
-        <v>1.75</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-      <c r="P32">
-        <v>1.35</v>
-      </c>
       <c r="Q32">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R32">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="S32">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="T32">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="U32">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="V32">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
         <v>3</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="Z32">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="AA32">
-        <v>2.81</v>
+        <v>2.36</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE32">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AG32">
-        <v>1.92</v>
+        <v>1.34</v>
       </c>
       <c r="AH32">
-        <v>2.55</v>
+        <v>1.59</v>
       </c>
       <c r="AI32">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2">
         <v>45163</v>
@@ -4533,16 +4533,16 @@
         <v>2.6</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N33">
         <v>1.67</v>
@@ -4563,13 +4563,13 @@
         <v>2.25</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W33">
         <v>1</v>
@@ -4587,33 +4587,33 @@
         <v>2.33</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
         <v>45163</v>
@@ -4631,76 +4631,76 @@
         <v>196</v>
       </c>
       <c r="G34">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H34">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J34">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K34">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L34">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M34">
-        <v>4.33</v>
+        <v>4.9</v>
       </c>
       <c r="N34">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="O34">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="P34">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="Q34">
         <v>3.5</v>
       </c>
       <c r="R34">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T34">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="U34">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="V34">
-        <v>2.3</v>
+        <v>2.69</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="Z34">
-        <v>0.64</v>
+        <v>1.52</v>
       </c>
       <c r="AA34">
-        <v>2.46</v>
+        <v>3.92</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="AE34">
         <v>1.18</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2">
         <v>45163</v>
@@ -4729,7 +4729,7 @@
         <v>84</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
         <v>128</v>
@@ -4738,96 +4738,96 @@
         <v>197</v>
       </c>
       <c r="G35">
-        <v>2.32</v>
+        <v>1.53</v>
       </c>
       <c r="H35">
-        <v>2.92</v>
+        <v>4.03</v>
       </c>
       <c r="I35">
-        <v>2.92</v>
+        <v>5.25</v>
       </c>
       <c r="J35">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K35">
-        <v>6.6</v>
+        <v>16</v>
       </c>
       <c r="L35">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="M35">
-        <v>2.48</v>
+        <v>4.1</v>
       </c>
       <c r="N35">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="O35">
-        <v>1.59</v>
+        <v>2.1</v>
       </c>
       <c r="P35">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="Q35">
+        <v>3.2</v>
+      </c>
+      <c r="R35">
+        <v>1.75</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>1.15</v>
+      </c>
+      <c r="U35">
+        <v>1.19</v>
+      </c>
+      <c r="V35">
+        <v>2.35</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>1.63</v>
+      </c>
+      <c r="Z35">
+        <v>1.38</v>
+      </c>
+      <c r="AA35">
+        <v>3.01</v>
+      </c>
+      <c r="AB35">
+        <v>1.38</v>
+      </c>
+      <c r="AC35">
+        <v>8</v>
+      </c>
+      <c r="AD35">
+        <v>4</v>
+      </c>
+      <c r="AE35">
+        <v>1.18</v>
+      </c>
+      <c r="AF35">
+        <v>1.3</v>
+      </c>
+      <c r="AG35">
+        <v>1.6</v>
+      </c>
+      <c r="AH35">
+        <v>1.95</v>
+      </c>
+      <c r="AI35">
         <v>2.4</v>
-      </c>
-      <c r="R35">
-        <v>2.03</v>
-      </c>
-      <c r="S35">
-        <v>1.7</v>
-      </c>
-      <c r="T35">
-        <v>1.38</v>
-      </c>
-      <c r="U35">
-        <v>1.36</v>
-      </c>
-      <c r="V35">
-        <v>1.53</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>1.76</v>
-      </c>
-      <c r="AC35">
-        <v>8.1</v>
-      </c>
-      <c r="AD35">
-        <v>2.48</v>
-      </c>
-      <c r="AE35">
-        <v>1.49</v>
-      </c>
-      <c r="AF35">
-        <v>1.9</v>
-      </c>
-      <c r="AG35">
-        <v>2.55</v>
-      </c>
-      <c r="AH35">
-        <v>3.7</v>
-      </c>
-      <c r="AI35">
-        <v>4.8</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2">
         <v>45163</v>
@@ -4845,96 +4845,96 @@
         <v>198</v>
       </c>
       <c r="G36">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="H36">
-        <v>3.56</v>
+        <v>4.2</v>
       </c>
       <c r="I36">
-        <v>3.32</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K36">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L36">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M36">
-        <v>3.82</v>
+        <v>4.33</v>
       </c>
       <c r="N36">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="O36">
+        <v>2.2</v>
+      </c>
+      <c r="P36">
+        <v>1.29</v>
+      </c>
+      <c r="Q36">
+        <v>3.5</v>
+      </c>
+      <c r="R36">
+        <v>1.7</v>
+      </c>
+      <c r="S36">
         <v>2.05</v>
       </c>
-      <c r="P36">
+      <c r="T36">
+        <v>1.14</v>
+      </c>
+      <c r="U36">
+        <v>1.22</v>
+      </c>
+      <c r="V36">
+        <v>2.3</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1.82</v>
+      </c>
+      <c r="Z36">
+        <v>0.64</v>
+      </c>
+      <c r="AA36">
+        <v>2.46</v>
+      </c>
+      <c r="AB36">
+        <v>1.54</v>
+      </c>
+      <c r="AC36">
+        <v>9.4</v>
+      </c>
+      <c r="AD36">
+        <v>3.04</v>
+      </c>
+      <c r="AE36">
+        <v>1.18</v>
+      </c>
+      <c r="AF36">
         <v>1.34</v>
       </c>
-      <c r="Q36">
-        <v>3.1</v>
-      </c>
-      <c r="R36">
-        <v>1.65</v>
-      </c>
-      <c r="S36">
-        <v>2.18</v>
-      </c>
-      <c r="T36">
-        <v>1.33</v>
-      </c>
-      <c r="U36">
-        <v>1.31</v>
-      </c>
-      <c r="V36">
-        <v>1.82</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>1.84</v>
-      </c>
-      <c r="Z36">
-        <v>0.58</v>
-      </c>
-      <c r="AA36">
-        <v>2.42</v>
-      </c>
-      <c r="AB36">
-        <v>1.62</v>
-      </c>
-      <c r="AC36">
-        <v>8</v>
-      </c>
-      <c r="AD36">
-        <v>2.63</v>
-      </c>
-      <c r="AE36">
-        <v>1.24</v>
-      </c>
-      <c r="AF36">
-        <v>1.46</v>
-      </c>
       <c r="AG36">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="AH36">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="AI36">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2">
         <v>45163</v>
@@ -4952,96 +4952,96 @@
         <v>199</v>
       </c>
       <c r="G37">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="H37">
-        <v>4.03</v>
+        <v>3.65</v>
       </c>
       <c r="I37">
-        <v>5.25</v>
+        <v>3.45</v>
       </c>
       <c r="J37">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L37">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M37">
-        <v>4.1</v>
+        <v>3.82</v>
       </c>
       <c r="N37">
+        <v>1.72</v>
+      </c>
+      <c r="O37">
+        <v>1.97</v>
+      </c>
+      <c r="P37">
+        <v>1.34</v>
+      </c>
+      <c r="Q37">
+        <v>3.1</v>
+      </c>
+      <c r="R37">
         <v>1.65</v>
       </c>
-      <c r="O37">
-        <v>2.1</v>
-      </c>
-      <c r="P37">
-        <v>1.32</v>
-      </c>
-      <c r="Q37">
-        <v>3.2</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="T37">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="U37">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="V37">
-        <v>2.35</v>
+        <v>1.82</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="Z37">
-        <v>1.38</v>
+        <v>0.58</v>
       </c>
       <c r="AA37">
-        <v>3.01</v>
+        <v>2.42</v>
       </c>
       <c r="AB37">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="AC37">
         <v>8</v>
       </c>
       <c r="AD37">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="AE37">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AF37">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AG37">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AH37">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="AI37">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2">
         <v>45163</v>
@@ -5050,7 +5050,7 @@
         <v>84</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>131</v>
@@ -5059,96 +5059,96 @@
         <v>200</v>
       </c>
       <c r="G38">
+        <v>2.34</v>
+      </c>
+      <c r="H38">
+        <v>2.88</v>
+      </c>
+      <c r="I38">
+        <v>3.15</v>
+      </c>
+      <c r="J38">
+        <v>1.06</v>
+      </c>
+      <c r="K38">
+        <v>6.6</v>
+      </c>
+      <c r="L38">
         <v>1.45</v>
       </c>
-      <c r="H38">
-        <v>4.75</v>
-      </c>
-      <c r="I38">
-        <v>6.5</v>
-      </c>
-      <c r="J38">
-        <v>1.02</v>
-      </c>
-      <c r="K38">
-        <v>20</v>
-      </c>
-      <c r="L38">
-        <v>1.16</v>
-      </c>
       <c r="M38">
-        <v>4.9</v>
+        <v>2.48</v>
       </c>
       <c r="N38">
-        <v>1.52</v>
+        <v>2.41</v>
       </c>
       <c r="O38">
-        <v>2.35</v>
+        <v>1.48</v>
       </c>
       <c r="P38">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="Q38">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="R38">
-        <v>1.64</v>
+        <v>2.03</v>
       </c>
       <c r="S38">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="T38">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="U38">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="V38">
-        <v>2.69</v>
+        <v>1.53</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AE38">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="AF38">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
       <c r="AG38">
-        <v>1.61</v>
+        <v>2.55</v>
       </c>
       <c r="AH38">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="AI38">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2">
         <v>45163</v>
@@ -5157,7 +5157,7 @@
         <v>85</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
         <v>132</v>
@@ -5166,96 +5166,96 @@
         <v>201</v>
       </c>
       <c r="G39">
-        <v>3.46</v>
+        <v>3.9</v>
       </c>
       <c r="H39">
-        <v>3.27</v>
+        <v>3.5</v>
       </c>
       <c r="I39">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="J39">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K39">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="L39">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="M39">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="O39">
-        <v>1.66</v>
+        <v>1.97</v>
       </c>
       <c r="P39">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="Q39">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="R39">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="S39">
-        <v>1.74</v>
+        <v>2.25</v>
       </c>
       <c r="T39">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U39">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="V39">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="W39">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y39">
-        <v>1.35</v>
+        <v>1.96</v>
       </c>
       <c r="Z39">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
       <c r="AA39">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AE39">
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2">
         <v>45163</v>
@@ -5264,7 +5264,7 @@
         <v>85</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
         <v>133</v>
@@ -5273,13 +5273,13 @@
         <v>202</v>
       </c>
       <c r="G40">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H40">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I40">
-        <v>1.84</v>
+        <v>2.55</v>
       </c>
       <c r="J40">
         <v>1.04</v>
@@ -5294,55 +5294,55 @@
         <v>4</v>
       </c>
       <c r="N40">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="O40">
         <v>2.02</v>
       </c>
       <c r="P40">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q40">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R40">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="S40">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="T40">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="U40">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V40">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X40">
         <v>1.5</v>
       </c>
       <c r="Y40">
-        <v>1.96</v>
+        <v>1.41</v>
       </c>
       <c r="Z40">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AA40">
-        <v>3.43</v>
+        <v>2.54</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -5354,15 +5354,15 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>45163</v>
@@ -5371,7 +5371,7 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
         <v>134</v>
@@ -5380,67 +5380,67 @@
         <v>203</v>
       </c>
       <c r="G41">
+        <v>3.5</v>
+      </c>
+      <c r="H41">
         <v>3.2</v>
       </c>
-      <c r="H41">
-        <v>3.55</v>
-      </c>
       <c r="I41">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="J41">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="L41">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2.68</v>
       </c>
       <c r="N41">
-        <v>1.68</v>
+        <v>2.03</v>
       </c>
       <c r="O41">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="P41">
+        <v>1.49</v>
+      </c>
+      <c r="Q41">
+        <v>2.52</v>
+      </c>
+      <c r="R41">
+        <v>2.02</v>
+      </c>
+      <c r="S41">
+        <v>1.74</v>
+      </c>
+      <c r="T41">
+        <v>1.78</v>
+      </c>
+      <c r="U41">
         <v>1.33</v>
       </c>
-      <c r="Q41">
-        <v>3.25</v>
-      </c>
-      <c r="R41">
-        <v>1.55</v>
-      </c>
-      <c r="S41">
-        <v>2.35</v>
-      </c>
-      <c r="T41">
-        <v>1.45</v>
-      </c>
-      <c r="U41">
-        <v>1.22</v>
-      </c>
       <c r="V41">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="W41">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="X41">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Y41">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="Z41">
-        <v>1.13</v>
+        <v>2.06</v>
       </c>
       <c r="AA41">
-        <v>2.54</v>
+        <v>3.41</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2">
         <v>45163</v>
@@ -5478,7 +5478,7 @@
         <v>86</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>135</v>
@@ -5487,13 +5487,13 @@
         <v>204</v>
       </c>
       <c r="G42">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="H42">
-        <v>3.26</v>
+        <v>3.15</v>
       </c>
       <c r="I42">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="J42">
         <v>1.06</v>
@@ -5502,81 +5502,81 @@
         <v>8</v>
       </c>
       <c r="L42">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N42">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="O42">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="P42">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q42">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R42">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="S42">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T42">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="U42">
         <v>1.3</v>
       </c>
       <c r="V42">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="W42">
-        <v>3</v>
+        <v>0.64</v>
       </c>
       <c r="X42">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="Y42">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="Z42">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AA42">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
       <c r="AB42">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AC42">
         <v>8</v>
       </c>
       <c r="AD42">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="AE42">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AF42">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AG42">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AH42">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="AI42">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2">
         <v>45163</v>
@@ -5585,7 +5585,7 @@
         <v>86</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
         <v>136</v>
@@ -5594,13 +5594,13 @@
         <v>205</v>
       </c>
       <c r="G43">
-        <v>2.16</v>
+        <v>2.39</v>
       </c>
       <c r="H43">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I43">
-        <v>3.1</v>
+        <v>2.69</v>
       </c>
       <c r="J43">
         <v>1.06</v>
@@ -5612,13 +5612,13 @@
         <v>1.33</v>
       </c>
       <c r="M43">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="O43">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P43">
         <v>1.4</v>
@@ -5627,63 +5627,63 @@
         <v>2.75</v>
       </c>
       <c r="R43">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S43">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="U43">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V43">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="W43">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>1.43</v>
+        <v>0.79</v>
       </c>
       <c r="Z43">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AA43">
-        <v>2.85</v>
+        <v>2.44</v>
       </c>
       <c r="AB43">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AC43">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD43">
         <v>2.1</v>
       </c>
       <c r="AE43">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AF43">
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
       <c r="AG43">
-        <v>1.98</v>
+        <v>1.56</v>
       </c>
       <c r="AH43">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="AI43">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2">
         <v>45163</v>
@@ -5692,7 +5692,7 @@
         <v>86</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
         <v>137</v>
@@ -5701,96 +5701,96 @@
         <v>206</v>
       </c>
       <c r="G44">
-        <v>1.73</v>
+        <v>2.45</v>
       </c>
       <c r="H44">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="I44">
-        <v>4.25</v>
+        <v>2.73</v>
       </c>
       <c r="J44">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K44">
-        <v>9.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L44">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M44">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>2.21</v>
       </c>
       <c r="O44">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="P44">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q44">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="S44">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="U44">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="V44">
+        <v>1.55</v>
+      </c>
+      <c r="W44">
+        <v>3</v>
+      </c>
+      <c r="X44">
+        <v>3</v>
+      </c>
+      <c r="Y44">
+        <v>1.97</v>
+      </c>
+      <c r="Z44">
+        <v>1.04</v>
+      </c>
+      <c r="AA44">
+        <v>3.01</v>
+      </c>
+      <c r="AB44">
+        <v>1.82</v>
+      </c>
+      <c r="AC44">
+        <v>8</v>
+      </c>
+      <c r="AD44">
+        <v>2.39</v>
+      </c>
+      <c r="AE44">
+        <v>1.18</v>
+      </c>
+      <c r="AF44">
+        <v>1.33</v>
+      </c>
+      <c r="AG44">
+        <v>1.6</v>
+      </c>
+      <c r="AH44">
         <v>2.05</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>1.45</v>
-      </c>
-      <c r="AC44">
-        <v>8.5</v>
-      </c>
-      <c r="AD44">
-        <v>3.33</v>
-      </c>
-      <c r="AE44">
-        <v>1.24</v>
-      </c>
-      <c r="AF44">
-        <v>1.46</v>
-      </c>
-      <c r="AG44">
-        <v>1.95</v>
-      </c>
-      <c r="AH44">
-        <v>2.4</v>
-      </c>
       <c r="AI44">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2">
         <v>45163</v>
@@ -5799,7 +5799,7 @@
         <v>86</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
         <v>138</v>
@@ -5808,96 +5808,96 @@
         <v>207</v>
       </c>
       <c r="G45">
-        <v>2.7</v>
+        <v>1.36</v>
       </c>
       <c r="H45">
-        <v>3.2</v>
+        <v>4.65</v>
       </c>
       <c r="I45">
-        <v>2.4</v>
+        <v>7.25</v>
       </c>
       <c r="J45">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K45">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L45">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="M45">
+        <v>4.5</v>
+      </c>
+      <c r="N45">
+        <v>1.53</v>
+      </c>
+      <c r="O45">
+        <v>2.3</v>
+      </c>
+      <c r="P45">
+        <v>1.29</v>
+      </c>
+      <c r="Q45">
+        <v>3.5</v>
+      </c>
+      <c r="R45">
+        <v>1.7</v>
+      </c>
+      <c r="S45">
+        <v>2.05</v>
+      </c>
+      <c r="T45">
+        <v>1.13</v>
+      </c>
+      <c r="U45">
+        <v>1.22</v>
+      </c>
+      <c r="V45">
+        <v>2.55</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>1.4</v>
+      </c>
+      <c r="AC45">
+        <v>8.5</v>
+      </c>
+      <c r="AD45">
+        <v>3.65</v>
+      </c>
+      <c r="AE45">
+        <v>1.27</v>
+      </c>
+      <c r="AF45">
+        <v>1.5</v>
+      </c>
+      <c r="AG45">
+        <v>1.86</v>
+      </c>
+      <c r="AH45">
+        <v>2.33</v>
+      </c>
+      <c r="AI45">
         <v>3.1</v>
-      </c>
-      <c r="N45">
-        <v>1.96</v>
-      </c>
-      <c r="O45">
-        <v>1.8</v>
-      </c>
-      <c r="P45">
-        <v>1.4</v>
-      </c>
-      <c r="Q45">
-        <v>2.75</v>
-      </c>
-      <c r="R45">
-        <v>1.78</v>
-      </c>
-      <c r="S45">
-        <v>1.95</v>
-      </c>
-      <c r="T45">
-        <v>1.42</v>
-      </c>
-      <c r="U45">
-        <v>1.25</v>
-      </c>
-      <c r="V45">
-        <v>1.44</v>
-      </c>
-      <c r="W45">
-        <v>0.5</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0.79</v>
-      </c>
-      <c r="Z45">
-        <v>1.65</v>
-      </c>
-      <c r="AA45">
-        <v>2.44</v>
-      </c>
-      <c r="AB45">
-        <v>2.05</v>
-      </c>
-      <c r="AC45">
-        <v>7.4</v>
-      </c>
-      <c r="AD45">
-        <v>2.1</v>
-      </c>
-      <c r="AE45">
-        <v>1.15</v>
-      </c>
-      <c r="AF45">
-        <v>1.29</v>
-      </c>
-      <c r="AG45">
-        <v>1.56</v>
-      </c>
-      <c r="AH45">
-        <v>1.9</v>
-      </c>
-      <c r="AI45">
-        <v>2.38</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2">
         <v>45163</v>
@@ -5906,7 +5906,7 @@
         <v>86</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>139</v>
@@ -5915,96 +5915,96 @@
         <v>208</v>
       </c>
       <c r="G46">
-        <v>2.65</v>
+        <v>1.69</v>
       </c>
       <c r="H46">
+        <v>3.4</v>
+      </c>
+      <c r="I46">
+        <v>4.45</v>
+      </c>
+      <c r="J46">
+        <v>1.07</v>
+      </c>
+      <c r="K46">
+        <v>9.6</v>
+      </c>
+      <c r="L46">
+        <v>1.37</v>
+      </c>
+      <c r="M46">
         <v>3.15</v>
       </c>
-      <c r="I46">
-        <v>2.46</v>
-      </c>
-      <c r="J46">
-        <v>1.05</v>
-      </c>
-      <c r="K46">
-        <v>7.5</v>
-      </c>
-      <c r="L46">
-        <v>1.3</v>
-      </c>
-      <c r="M46">
-        <v>3.14</v>
-      </c>
       <c r="N46">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="O46">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="P46">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q46">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R46">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="T46">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="U46">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="V46">
-        <v>1.42</v>
+        <v>2.05</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="AC46">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD46">
-        <v>1.91</v>
+        <v>3.33</v>
       </c>
       <c r="AE46">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AF46">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AG46">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AH46">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AI46">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2">
         <v>45163</v>
@@ -6013,7 +6013,7 @@
         <v>86</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
         <v>140</v>
@@ -6022,96 +6022,96 @@
         <v>209</v>
       </c>
       <c r="G47">
-        <v>1.49</v>
+        <v>2.54</v>
       </c>
       <c r="H47">
-        <v>4.45</v>
+        <v>2.92</v>
       </c>
       <c r="I47">
-        <v>5.8</v>
+        <v>2.54</v>
       </c>
       <c r="J47">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K47">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="L47">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="M47">
-        <v>4.5</v>
+        <v>3.14</v>
       </c>
       <c r="N47">
-        <v>1.59</v>
+        <v>2.09</v>
       </c>
       <c r="O47">
-        <v>2.35</v>
+        <v>1.54</v>
       </c>
       <c r="P47">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q47">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R47">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S47">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="U47">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="V47">
-        <v>2.55</v>
+        <v>1.42</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AB47">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="AC47">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD47">
-        <v>3.65</v>
+        <v>1.91</v>
       </c>
       <c r="AE47">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AF47">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AG47">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AH47">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="AI47">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2">
         <v>45163</v>
@@ -6120,7 +6120,7 @@
         <v>86</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
         <v>141</v>
@@ -6129,96 +6129,96 @@
         <v>210</v>
       </c>
       <c r="G48">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="H48">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I48">
-        <v>2.65</v>
+        <v>3.35</v>
       </c>
       <c r="J48">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K48">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L48">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N48">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="O48">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="P48">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="Q48">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="R48">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="S48">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="T48">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="U48">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="V48">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W48">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X48">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Y48">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="Z48">
-        <v>1.52</v>
+        <v>1.15</v>
       </c>
       <c r="AA48">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2">
         <v>45163</v>
@@ -6227,7 +6227,7 @@
         <v>86</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
         <v>142</v>
@@ -6236,91 +6236,91 @@
         <v>211</v>
       </c>
       <c r="G49">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="H49">
-        <v>3.01</v>
+        <v>3.5</v>
       </c>
       <c r="I49">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="J49">
         <v>1.03</v>
       </c>
       <c r="K49">
-        <v>8.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="L49">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="M49">
-        <v>3.14</v>
+        <v>4.5</v>
       </c>
       <c r="N49">
-        <v>2.29</v>
+        <v>1.57</v>
       </c>
       <c r="O49">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="P49">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="Q49">
-        <v>2.73</v>
+        <v>3.4</v>
       </c>
       <c r="R49">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="T49">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U49">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="V49">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W49">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X49">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y49">
-        <v>1.97</v>
+        <v>1.23</v>
       </c>
       <c r="Z49">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="AA49">
-        <v>3.01</v>
+        <v>2.75</v>
       </c>
       <c r="AB49">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AC49">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD49">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AE49">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AF49">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="AG49">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="AH49">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="AI49">
-        <v>2.7</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6343,91 +6343,91 @@
         <v>212</v>
       </c>
       <c r="G50">
-        <v>1.85</v>
+        <v>2.34</v>
       </c>
       <c r="H50">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I50">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="J50">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="N50">
+        <v>2.2</v>
+      </c>
+      <c r="O50">
+        <v>1.55</v>
+      </c>
+      <c r="P50">
+        <v>1.5</v>
+      </c>
+      <c r="Q50">
+        <v>2.5</v>
+      </c>
+      <c r="R50">
+        <v>1.95</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
         <v>2</v>
       </c>
-      <c r="O50">
+      <c r="X50">
         <v>1.75</v>
       </c>
-      <c r="P50">
-        <v>1.4</v>
-      </c>
-      <c r="Q50">
-        <v>2.75</v>
-      </c>
-      <c r="R50">
-        <v>1.8</v>
-      </c>
-      <c r="S50">
-        <v>1.95</v>
-      </c>
-      <c r="T50">
-        <v>1.18</v>
-      </c>
-      <c r="U50">
-        <v>1.25</v>
-      </c>
-      <c r="V50">
-        <v>1.87</v>
-      </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50">
-        <v>0.46</v>
-      </c>
       <c r="Y50">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AA50">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="AB50">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AG50">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AH50">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AI50">
-        <v>2.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -6450,91 +6450,91 @@
         <v>213</v>
       </c>
       <c r="G51">
-        <v>2.5</v>
+        <v>22</v>
       </c>
       <c r="H51">
-        <v>3.05</v>
+        <v>8.4</v>
       </c>
       <c r="I51">
-        <v>2.7</v>
+        <v>1.07</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N51">
+        <v>1.43</v>
+      </c>
+      <c r="O51">
+        <v>2.51</v>
+      </c>
+      <c r="P51">
+        <v>1.25</v>
+      </c>
+      <c r="Q51">
+        <v>3.75</v>
+      </c>
+      <c r="R51">
+        <v>2.38</v>
+      </c>
+      <c r="S51">
+        <v>1.53</v>
+      </c>
+      <c r="T51">
+        <v>4.75</v>
+      </c>
+      <c r="U51">
+        <v>1.04</v>
+      </c>
+      <c r="V51">
+        <v>1.01</v>
+      </c>
+      <c r="W51">
+        <v>0.67</v>
+      </c>
+      <c r="X51">
+        <v>1.54</v>
+      </c>
+      <c r="Y51">
+        <v>0.95</v>
+      </c>
+      <c r="Z51">
+        <v>1.45</v>
+      </c>
+      <c r="AA51">
+        <v>2.4</v>
+      </c>
+      <c r="AB51">
+        <v>8.25</v>
+      </c>
+      <c r="AC51">
+        <v>12</v>
+      </c>
+      <c r="AD51">
+        <v>1.11</v>
+      </c>
+      <c r="AE51">
+        <v>1.3</v>
+      </c>
+      <c r="AF51">
+        <v>1.5</v>
+      </c>
+      <c r="AG51">
+        <v>1.93</v>
+      </c>
+      <c r="AH51">
         <v>2.25</v>
       </c>
-      <c r="O51">
-        <v>1.53</v>
-      </c>
-      <c r="P51">
-        <v>1.5</v>
-      </c>
-      <c r="Q51">
-        <v>2.5</v>
-      </c>
-      <c r="R51">
-        <v>1.95</v>
-      </c>
-      <c r="S51">
-        <v>1.8</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>2</v>
-      </c>
-      <c r="X51">
-        <v>1.75</v>
-      </c>
-      <c r="Y51">
-        <v>1.7</v>
-      </c>
-      <c r="Z51">
-        <v>1.26</v>
-      </c>
-      <c r="AA51">
-        <v>2.96</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
       <c r="AI51">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6557,91 +6557,91 @@
         <v>214</v>
       </c>
       <c r="G52">
-        <v>16</v>
+        <v>1.77</v>
       </c>
       <c r="H52">
-        <v>7</v>
+        <v>3.45</v>
       </c>
       <c r="I52">
-        <v>1.12</v>
+        <v>4.15</v>
       </c>
       <c r="J52">
+        <v>1.06</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
+      <c r="L52">
+        <v>1.33</v>
+      </c>
+      <c r="M52">
+        <v>3.2</v>
+      </c>
+      <c r="N52">
+        <v>1.93</v>
+      </c>
+      <c r="O52">
+        <v>1.72</v>
+      </c>
+      <c r="P52">
+        <v>1.4</v>
+      </c>
+      <c r="Q52">
+        <v>2.75</v>
+      </c>
+      <c r="R52">
+        <v>1.8</v>
+      </c>
+      <c r="S52">
+        <v>1.95</v>
+      </c>
+      <c r="T52">
+        <v>1.18</v>
+      </c>
+      <c r="U52">
+        <v>1.25</v>
+      </c>
+      <c r="V52">
+        <v>1.87</v>
+      </c>
+      <c r="W52">
         <v>1</v>
       </c>
-      <c r="K52">
-        <v>12</v>
-      </c>
-      <c r="L52">
-        <v>1.13</v>
-      </c>
-      <c r="M52">
-        <v>5</v>
-      </c>
-      <c r="N52">
-        <v>1.47</v>
-      </c>
-      <c r="O52">
-        <v>2.55</v>
-      </c>
-      <c r="P52">
-        <v>1.25</v>
-      </c>
-      <c r="Q52">
-        <v>3.75</v>
-      </c>
-      <c r="R52">
-        <v>2.38</v>
-      </c>
-      <c r="S52">
-        <v>1.53</v>
-      </c>
-      <c r="T52">
-        <v>4.75</v>
-      </c>
-      <c r="U52">
-        <v>1.04</v>
-      </c>
-      <c r="V52">
-        <v>1.01</v>
-      </c>
-      <c r="W52">
-        <v>0.67</v>
-      </c>
       <c r="X52">
-        <v>1.54</v>
+        <v>0.46</v>
       </c>
       <c r="Y52">
-        <v>0.95</v>
+        <v>1.68</v>
       </c>
       <c r="Z52">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AA52">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="AB52">
-        <v>8.25</v>
+        <v>1.3</v>
       </c>
       <c r="AC52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD52">
-        <v>1.11</v>
+        <v>4.42</v>
       </c>
       <c r="AE52">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AF52">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AG52">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AH52">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AI52">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6664,13 +6664,13 @@
         <v>215</v>
       </c>
       <c r="G53">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H53">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I53">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J53">
         <v>1.06</v>
@@ -6685,10 +6685,10 @@
         <v>3.3</v>
       </c>
       <c r="N53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O53">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="P53">
         <v>1.4</v>
@@ -6771,13 +6771,13 @@
         <v>216</v>
       </c>
       <c r="G54">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H54">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I54">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="J54">
         <v>1.01</v>
@@ -6792,10 +6792,10 @@
         <v>3.5</v>
       </c>
       <c r="N54">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="O54">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="P54">
         <v>1.41</v>
@@ -6834,22 +6834,22 @@
         <v>2.62</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH54">
         <v>0</v>
@@ -6878,13 +6878,13 @@
         <v>217</v>
       </c>
       <c r="G55">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="H55">
         <v>3.2</v>
       </c>
       <c r="I55">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="J55">
         <v>1.01</v>
@@ -6899,10 +6899,10 @@
         <v>3.08</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O55">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="P55">
         <v>1.45</v>
@@ -6985,13 +6985,13 @@
         <v>218</v>
       </c>
       <c r="G56">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="H56">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="I56">
-        <v>10.35</v>
+        <v>11</v>
       </c>
       <c r="J56">
         <v>1.02</v>
@@ -7006,10 +7006,10 @@
         <v>5.6</v>
       </c>
       <c r="N56">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="O56">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="P56">
         <v>1.25</v>
@@ -7092,13 +7092,13 @@
         <v>219</v>
       </c>
       <c r="G57">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H57">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="I57">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="J57">
         <v>1.03</v>
@@ -7113,10 +7113,10 @@
         <v>4.33</v>
       </c>
       <c r="N57">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="O57">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="P57">
         <v>1.3</v>
@@ -7306,13 +7306,13 @@
         <v>221</v>
       </c>
       <c r="G59">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="H59">
+        <v>3.15</v>
+      </c>
+      <c r="I59">
         <v>3.3</v>
-      </c>
-      <c r="I59">
-        <v>3.4</v>
       </c>
       <c r="J59">
         <v>1.06</v>
@@ -7327,10 +7327,10 @@
         <v>3.25</v>
       </c>
       <c r="N59">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O59">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="P59">
         <v>1.4</v>
@@ -7413,13 +7413,13 @@
         <v>222</v>
       </c>
       <c r="G60">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="H60">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="I60">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="J60">
         <v>1.03</v>
@@ -7434,10 +7434,10 @@
         <v>4.5</v>
       </c>
       <c r="N60">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="O60">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="P60">
         <v>1.3</v>
@@ -7520,13 +7520,13 @@
         <v>223</v>
       </c>
       <c r="G61">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="J61">
         <v>1.08</v>
@@ -7541,10 +7541,10 @@
         <v>2.62</v>
       </c>
       <c r="N61">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="O61">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="P61">
         <v>1.5</v>
@@ -7627,10 +7627,10 @@
         <v>224</v>
       </c>
       <c r="G62">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="H62">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I62">
         <v>4.2</v>
@@ -7648,10 +7648,10 @@
         <v>3.25</v>
       </c>
       <c r="N62">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O62">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P62">
         <v>1.4</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2">
         <v>45163</v>
@@ -7734,96 +7734,96 @@
         <v>225</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>6.86</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Z63">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AA63">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF63">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG63">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH63">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2">
         <v>45163</v>
@@ -7832,7 +7832,7 @@
         <v>92</v>
       </c>
       <c r="D64">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
         <v>157</v>
@@ -7841,91 +7841,91 @@
         <v>226</v>
       </c>
       <c r="G64">
-        <v>1.83</v>
+        <v>2.26</v>
       </c>
       <c r="H64">
         <v>3.1</v>
       </c>
       <c r="I64">
-        <v>4.2</v>
+        <v>2.98</v>
       </c>
       <c r="J64">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K64">
-        <v>6.25</v>
+        <v>10</v>
       </c>
       <c r="L64">
+        <v>1.33</v>
+      </c>
+      <c r="M64">
+        <v>3.25</v>
+      </c>
+      <c r="N64">
+        <v>1.71</v>
+      </c>
+      <c r="O64">
+        <v>1.94</v>
+      </c>
+      <c r="P64">
+        <v>1.44</v>
+      </c>
+      <c r="Q64">
+        <v>2.63</v>
+      </c>
+      <c r="R64">
+        <v>1.73</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>1.47</v>
+      </c>
+      <c r="U64">
+        <v>1.25</v>
+      </c>
+      <c r="V64">
         <v>1.5</v>
       </c>
-      <c r="M64">
-        <v>2.3</v>
-      </c>
-      <c r="N64">
-        <v>2.65</v>
-      </c>
-      <c r="O64">
-        <v>1.44</v>
-      </c>
-      <c r="P64">
+      <c r="W64">
+        <v>1.3</v>
+      </c>
+      <c r="X64">
         <v>1.55</v>
       </c>
-      <c r="Q64">
-        <v>2.25</v>
-      </c>
-      <c r="R64">
-        <v>2.25</v>
-      </c>
-      <c r="S64">
-        <v>1.55</v>
-      </c>
-      <c r="T64">
-        <v>1.19</v>
-      </c>
-      <c r="U64">
-        <v>1.33</v>
-      </c>
-      <c r="V64">
-        <v>1.88</v>
-      </c>
-      <c r="W64">
-        <v>1.5</v>
-      </c>
-      <c r="X64">
-        <v>0.42</v>
-      </c>
       <c r="Y64">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="Z64">
-        <v>1.16</v>
+        <v>1.65</v>
       </c>
       <c r="AA64">
-        <v>2.65</v>
+        <v>3.26</v>
       </c>
       <c r="AB64">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AC64">
         <v>7.5</v>
       </c>
       <c r="AD64">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF64">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="AG64">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="AH64">
-        <v>1.68</v>
+        <v>2.7</v>
       </c>
       <c r="AI64">
-        <v>2.12</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="65" spans="1:35">
@@ -7939,7 +7939,7 @@
         <v>92</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
         <v>158</v>
@@ -7948,96 +7948,96 @@
         <v>227</v>
       </c>
       <c r="G65">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="H65">
         <v>3.1</v>
       </c>
       <c r="I65">
-        <v>2.15</v>
+        <v>3.65</v>
       </c>
       <c r="J65">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K65">
-        <v>6.86</v>
+        <v>6.25</v>
       </c>
       <c r="L65">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M65">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="N65">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O65">
+        <v>1.4</v>
+      </c>
+      <c r="P65">
+        <v>1.55</v>
+      </c>
+      <c r="Q65">
+        <v>2.25</v>
+      </c>
+      <c r="R65">
+        <v>2.25</v>
+      </c>
+      <c r="S65">
+        <v>1.55</v>
+      </c>
+      <c r="T65">
+        <v>1.19</v>
+      </c>
+      <c r="U65">
+        <v>1.33</v>
+      </c>
+      <c r="V65">
+        <v>1.88</v>
+      </c>
+      <c r="W65">
         <v>1.5</v>
       </c>
-      <c r="P65">
-        <v>1.53</v>
-      </c>
-      <c r="Q65">
-        <v>2.38</v>
-      </c>
-      <c r="R65">
-        <v>2.1</v>
-      </c>
-      <c r="S65">
-        <v>1.67</v>
-      </c>
-      <c r="T65">
-        <v>1.71</v>
-      </c>
-      <c r="U65">
-        <v>1.32</v>
-      </c>
-      <c r="V65">
-        <v>1.25</v>
-      </c>
-      <c r="W65">
-        <v>1.14</v>
-      </c>
       <c r="X65">
-        <v>1.14</v>
+        <v>0.42</v>
       </c>
       <c r="Y65">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="Z65">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="AA65">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AB65">
-        <v>2.53</v>
+        <v>1.75</v>
       </c>
       <c r="AC65">
         <v>7.5</v>
       </c>
       <c r="AD65">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AE65">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AF65">
-        <v>1.93</v>
+        <v>1.22</v>
       </c>
       <c r="AG65">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="AH65">
-        <v>2.9</v>
+        <v>1.68</v>
       </c>
       <c r="AI65">
-        <v>5.1</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B66" s="2">
         <v>45163</v>
@@ -8046,7 +8046,7 @@
         <v>92</v>
       </c>
       <c r="D66">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
         <v>159</v>
@@ -8055,91 +8055,91 @@
         <v>228</v>
       </c>
       <c r="G66">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="Y66">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="Z66">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AA66">
-        <v>3.26</v>
+        <v>1.8</v>
       </c>
       <c r="AB66">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD66">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE66">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF66">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AG66">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH66">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI66">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:35">
@@ -8153,7 +8153,7 @@
         <v>93</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
         <v>160</v>
@@ -8162,13 +8162,13 @@
         <v>229</v>
       </c>
       <c r="G67">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="H67">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I67">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O67">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -8210,19 +8210,19 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>3</v>
+        <v>1.14</v>
       </c>
       <c r="X67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y67">
-        <v>2.06</v>
+        <v>1.53</v>
       </c>
       <c r="Z67">
-        <v>1.63</v>
+        <v>1.1</v>
       </c>
       <c r="AA67">
-        <v>3.69</v>
+        <v>2.63</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -8260,7 +8260,7 @@
         <v>93</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
         <v>161</v>
@@ -8269,13 +8269,13 @@
         <v>230</v>
       </c>
       <c r="G68">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="H68">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I68">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>1.9</v>
       </c>
       <c r="O68">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -8317,19 +8317,19 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>1.14</v>
+        <v>3</v>
       </c>
       <c r="X68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y68">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="Z68">
-        <v>1.1</v>
+        <v>1.63</v>
       </c>
       <c r="AA68">
-        <v>2.63</v>
+        <v>3.69</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
         <v>45163</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2">
         <v>45163</v>
@@ -8483,13 +8483,13 @@
         <v>232</v>
       </c>
       <c r="G70">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H70">
         <v>3.6</v>
       </c>
       <c r="I70">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="J70">
         <v>1.1</v>
@@ -8504,10 +8504,10 @@
         <v>2.7</v>
       </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="O70">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P70">
         <v>1.51</v>

--- a/Jogos_do_Dia/2023-08-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -187,18 +187,18 @@
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
+    <t>Germany Bundesliga</t>
+  </si>
+  <si>
+    <t>England Championship</t>
+  </si>
+  <si>
+    <t>Slovakia Super Liga</t>
+  </si>
+  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
-    <t>Slovakia Super Liga</t>
-  </si>
-  <si>
-    <t>England Championship</t>
-  </si>
-  <si>
-    <t>Germany Bundesliga</t>
-  </si>
-  <si>
     <t>Italy Serie B</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Portugal Liga NOS</t>
   </si>
   <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
     <t>Chile Primera División</t>
   </si>
   <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
@@ -397,21 +397,21 @@
     <t>De Graafschap</t>
   </si>
   <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Panaitolikos</t>
+  </si>
+  <si>
+    <t>VVV</t>
+  </si>
+  <si>
     <t>Cambuur</t>
   </si>
   <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>Panaitolikos</t>
-  </si>
-  <si>
     <t>Bellinzona</t>
   </si>
   <si>
@@ -421,66 +421,66 @@
     <t>Hebar 1918</t>
   </si>
   <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>U Craiova 1948</t>
+  </si>
+  <si>
+    <t>Dornbirn</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>Zemplín Michalovce</t>
+  </si>
+  <si>
     <t>Torque</t>
   </si>
   <si>
-    <t>Zemplín Michalovce</t>
-  </si>
-  <si>
-    <t>Hull City</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
     <t>Sampdoria</t>
   </si>
   <si>
-    <t>U Craiova 1948</t>
-  </si>
-  <si>
-    <t>Widzew Łódź</t>
-  </si>
-  <si>
-    <t>Dornbirn</t>
+    <t>Drogheda United</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Bala Town</t>
+  </si>
+  <si>
+    <t>Pontypridd Town AFC</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Estrela Amadora</t>
+  </si>
+  <si>
+    <t>Celta de Vigo</t>
+  </si>
+  <si>
+    <t>FC Cartagena</t>
+  </si>
+  <si>
+    <t>Audax Italiano</t>
   </si>
   <si>
     <t>Bohemians</t>
   </si>
   <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
-    <t>Pontypridd Town AFC</t>
-  </si>
-  <si>
-    <t>Bala Town</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Estrela Amadora</t>
-  </si>
-  <si>
-    <t>Audax Italiano</t>
-  </si>
-  <si>
-    <t>Celta de Vigo</t>
-  </si>
-  <si>
-    <t>FC Cartagena</t>
-  </si>
-  <si>
     <t>Defensor Sporting</t>
   </si>
   <si>
@@ -604,21 +604,21 @@
     <t>Emmen</t>
   </si>
   <si>
+    <t>Gazişehir Gaziantep</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>PAS Giannina</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
     <t>Ajax II</t>
   </si>
   <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>Gazişehir Gaziantep</t>
-  </si>
-  <si>
-    <t>PAS Giannina</t>
-  </si>
-  <si>
     <t>Thun</t>
   </si>
   <si>
@@ -628,64 +628,64 @@
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
+    <t>Śląsk Wrocław</t>
+  </si>
+  <si>
+    <t>Rapid Bucureşti</t>
+  </si>
+  <si>
+    <t>Schwarz-Weiß Bregenz</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>FK Košice</t>
+  </si>
+  <si>
     <t>Fénix</t>
   </si>
   <si>
-    <t>FK Košice</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
     <t>Pisa</t>
   </si>
   <si>
-    <t>Rapid Bucureşti</t>
-  </si>
-  <si>
-    <t>Śląsk Wrocław</t>
-  </si>
-  <si>
-    <t>Schwarz-Weiß Bregenz</t>
+    <t>Cork City</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>Connah's Quay</t>
+  </si>
+  <si>
+    <t>Penybont</t>
+  </si>
+  <si>
+    <t>Luton Town</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>GD Estoril Praia</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Levante UD</t>
+  </si>
+  <si>
+    <t>Coquimbo Unido</t>
   </si>
   <si>
     <t>Derry City</t>
-  </si>
-  <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
-    <t>Cork City</t>
-  </si>
-  <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
-    <t>Penybont</t>
-  </si>
-  <si>
-    <t>Connah's Quay</t>
-  </si>
-  <si>
-    <t>Luton Town</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>GD Estoril Praia</t>
-  </si>
-  <si>
-    <t>Coquimbo Unido</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Levante UD</t>
   </si>
   <si>
     <t>Wanderers</t>
@@ -1790,7 +1790,7 @@
         <v>1.29</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1897,10 +1897,10 @@
         <v>2.15</v>
       </c>
       <c r="W8">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="X8">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="Y8">
         <v>1.44</v>
@@ -2004,7 +2004,7 @@
         <v>1.41</v>
       </c>
       <c r="W9">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -2111,10 +2111,10 @@
         <v>1.71</v>
       </c>
       <c r="W10">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y10">
         <v>1.14</v>
@@ -2218,10 +2218,10 @@
         <v>1.33</v>
       </c>
       <c r="W11">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Y11">
         <v>1.27</v>
@@ -2325,10 +2325,10 @@
         <v>5.4</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X12">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="Y12">
         <v>2.24</v>
@@ -2384,13 +2384,13 @@
         <v>175</v>
       </c>
       <c r="G13">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I13">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="J13">
         <v>1.04</v>
@@ -2405,10 +2405,10 @@
         <v>4.33</v>
       </c>
       <c r="N13">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="O13">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="P13">
         <v>1.3</v>
@@ -2417,10 +2417,10 @@
         <v>3.25</v>
       </c>
       <c r="R13">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T13">
         <v>1.5</v>
@@ -2432,10 +2432,10 @@
         <v>1.45</v>
       </c>
       <c r="W13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X13">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="Y13">
         <v>1.2</v>
@@ -2447,7 +2447,7 @@
         <v>2.23</v>
       </c>
       <c r="AB13">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AC13">
         <v>7.5</v>
@@ -2491,13 +2491,13 @@
         <v>176</v>
       </c>
       <c r="G14">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H14">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I14">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2512,10 +2512,10 @@
         <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O14">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="P14">
         <v>1.3</v>
@@ -2598,13 +2598,13 @@
         <v>177</v>
       </c>
       <c r="G15">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="H15">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I15">
-        <v>2.59</v>
+        <v>3.6</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2619,10 +2619,10 @@
         <v>4.33</v>
       </c>
       <c r="N15">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="P15">
         <v>1.3</v>
@@ -2646,7 +2646,7 @@
         <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2705,13 +2705,13 @@
         <v>178</v>
       </c>
       <c r="G16">
-        <v>1.84</v>
+        <v>2.15</v>
       </c>
       <c r="H16">
         <v>3.6</v>
       </c>
       <c r="I16">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -2726,10 +2726,10 @@
         <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="O16">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="P16">
         <v>1.35</v>
@@ -2753,10 +2753,10 @@
         <v>1.8</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y16">
         <v>1.36</v>
@@ -2812,13 +2812,13 @@
         <v>179</v>
       </c>
       <c r="G17">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="H17">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J17">
         <v>1.02</v>
@@ -2833,10 +2833,10 @@
         <v>4.33</v>
       </c>
       <c r="N17">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="P17">
         <v>1.3</v>
@@ -2860,10 +2860,10 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>1.78</v>
@@ -2967,10 +2967,10 @@
         <v>1.5</v>
       </c>
       <c r="W18">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>1.17</v>
@@ -3074,7 +3074,7 @@
         <v>2.1</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X19">
         <v>3</v>
@@ -3181,10 +3181,10 @@
         <v>1.75</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y20">
         <v>1.77</v>
@@ -3288,7 +3288,7 @@
         <v>1.6</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>1.95</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y22">
         <v>1.69</v>
@@ -3502,10 +3502,10 @@
         <v>1.22</v>
       </c>
       <c r="W23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="Y23">
         <v>1.71</v>
@@ -3561,13 +3561,13 @@
         <v>186</v>
       </c>
       <c r="G24">
-        <v>4.9</v>
+        <v>4.33</v>
       </c>
       <c r="H24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="J24">
         <v>1.04</v>
@@ -3582,10 +3582,10 @@
         <v>4</v>
       </c>
       <c r="N24">
-        <v>1.94</v>
+        <v>1.57</v>
       </c>
       <c r="O24">
-        <v>1.74</v>
+        <v>2.35</v>
       </c>
       <c r="P24">
         <v>1.33</v>
@@ -3594,10 +3594,10 @@
         <v>3.25</v>
       </c>
       <c r="R24">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T24">
         <v>1.83</v>
@@ -3609,10 +3609,10 @@
         <v>1.2</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="Y24">
         <v>1.33</v>
@@ -3633,7 +3633,7 @@
         <v>1.45</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF24">
         <v>1.31</v>
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25">
         <v>0.6899999999999999</v>
@@ -3775,13 +3775,13 @@
         <v>188</v>
       </c>
       <c r="G26">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H26">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I26">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <v>1.04</v>
@@ -3796,10 +3796,10 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="P26">
         <v>1.33</v>
@@ -3808,10 +3808,10 @@
         <v>3.25</v>
       </c>
       <c r="R26">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S26">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T26">
         <v>1.63</v>
@@ -3823,10 +3823,10 @@
         <v>1.28</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="X26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y26">
         <v>1.41</v>
@@ -3847,7 +3847,7 @@
         <v>1.7</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF26">
         <v>1.24</v>
@@ -4037,10 +4037,10 @@
         <v>2.12</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X28">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="Y28">
         <v>1.73</v>
@@ -4144,10 +4144,10 @@
         <v>1.35</v>
       </c>
       <c r="W29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29">
         <v>1.7</v>
@@ -4251,7 +4251,7 @@
         <v>1.44</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X30">
         <v>3</v>
@@ -4358,10 +4358,10 @@
         <v>1.55</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y31">
         <v>1.6</v>
@@ -4465,10 +4465,10 @@
         <v>1.95</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y32">
         <v>1.32</v>
@@ -4572,10 +4572,10 @@
         <v>1.55</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <v>1.05</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2">
         <v>45163</v>
@@ -4631,91 +4631,91 @@
         <v>196</v>
       </c>
       <c r="G34">
-        <v>1.45</v>
+        <v>1.91</v>
       </c>
       <c r="H34">
-        <v>4.75</v>
+        <v>3.65</v>
       </c>
       <c r="I34">
-        <v>6.5</v>
+        <v>3.45</v>
       </c>
       <c r="J34">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K34">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L34">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="M34">
-        <v>4.9</v>
+        <v>3.82</v>
       </c>
       <c r="N34">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="O34">
-        <v>2.35</v>
+        <v>1.97</v>
       </c>
       <c r="P34">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="Q34">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R34">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S34">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T34">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="U34">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="V34">
-        <v>2.69</v>
+        <v>1.82</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
+        <v>1.84</v>
+      </c>
+      <c r="Z34">
+        <v>0.58</v>
+      </c>
+      <c r="AA34">
+        <v>2.42</v>
+      </c>
+      <c r="AB34">
+        <v>1.62</v>
+      </c>
+      <c r="AC34">
+        <v>8</v>
+      </c>
+      <c r="AD34">
+        <v>2.63</v>
+      </c>
+      <c r="AE34">
+        <v>1.24</v>
+      </c>
+      <c r="AF34">
+        <v>1.46</v>
+      </c>
+      <c r="AG34">
+        <v>1.9</v>
+      </c>
+      <c r="AH34">
         <v>2.4</v>
       </c>
-      <c r="Z34">
-        <v>1.52</v>
-      </c>
-      <c r="AA34">
-        <v>3.92</v>
-      </c>
-      <c r="AB34">
-        <v>1.41</v>
-      </c>
-      <c r="AC34">
-        <v>10.7</v>
-      </c>
-      <c r="AD34">
-        <v>3.54</v>
-      </c>
-      <c r="AE34">
-        <v>1.18</v>
-      </c>
-      <c r="AF34">
-        <v>1.34</v>
-      </c>
-      <c r="AG34">
-        <v>1.61</v>
-      </c>
-      <c r="AH34">
-        <v>2.02</v>
-      </c>
       <c r="AI34">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4738,96 +4738,96 @@
         <v>197</v>
       </c>
       <c r="G35">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H35">
-        <v>4.03</v>
+        <v>4.2</v>
       </c>
       <c r="I35">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>1.03</v>
       </c>
       <c r="K35">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L35">
         <v>1.2</v>
       </c>
       <c r="M35">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="N35">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O35">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P35">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="Q35">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U35">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="V35">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X35">
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="Z35">
-        <v>1.38</v>
+        <v>0.64</v>
       </c>
       <c r="AA35">
-        <v>3.01</v>
+        <v>2.46</v>
       </c>
       <c r="AB35">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AC35">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD35">
-        <v>4</v>
+        <v>3.04</v>
       </c>
       <c r="AE35">
         <v>1.18</v>
       </c>
       <c r="AF35">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AG35">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AH35">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AI35">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2">
         <v>45163</v>
@@ -4836,7 +4836,7 @@
         <v>84</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>129</v>
@@ -4845,96 +4845,96 @@
         <v>198</v>
       </c>
       <c r="G36">
-        <v>1.5</v>
+        <v>2.34</v>
       </c>
       <c r="H36">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="J36">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K36">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="L36">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="M36">
-        <v>4.33</v>
+        <v>2.48</v>
       </c>
       <c r="N36">
-        <v>1.62</v>
+        <v>2.41</v>
       </c>
       <c r="O36">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="P36">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="Q36">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="R36">
+        <v>2.03</v>
+      </c>
+      <c r="S36">
         <v>1.7</v>
       </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
       <c r="T36">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="U36">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="V36">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="W36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
       <c r="AC36">
-        <v>9.4</v>
+        <v>8.1</v>
       </c>
       <c r="AD36">
-        <v>3.04</v>
+        <v>2.48</v>
       </c>
       <c r="AE36">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="AF36">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
       <c r="AG36">
-        <v>1.61</v>
+        <v>2.55</v>
       </c>
       <c r="AH36">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="AI36">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>45163</v>
@@ -4952,96 +4952,96 @@
         <v>199</v>
       </c>
       <c r="G37">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="H37">
-        <v>3.65</v>
+        <v>4.03</v>
       </c>
       <c r="I37">
-        <v>3.45</v>
+        <v>5.25</v>
       </c>
       <c r="J37">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L37">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M37">
-        <v>3.82</v>
+        <v>4.1</v>
       </c>
       <c r="N37">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O37">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="P37">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="Q37">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R37">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S37">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="U37">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="V37">
-        <v>1.82</v>
+        <v>2.35</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="Z37">
-        <v>0.58</v>
+        <v>1.38</v>
       </c>
       <c r="AA37">
-        <v>2.42</v>
+        <v>3.01</v>
       </c>
       <c r="AB37">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AC37">
         <v>8</v>
       </c>
       <c r="AD37">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="AE37">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AF37">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AG37">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AH37">
+        <v>1.95</v>
+      </c>
+      <c r="AI37">
         <v>2.4</v>
-      </c>
-      <c r="AI37">
-        <v>3.3</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2">
         <v>45163</v>
@@ -5050,7 +5050,7 @@
         <v>84</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
         <v>131</v>
@@ -5059,91 +5059,91 @@
         <v>200</v>
       </c>
       <c r="G38">
-        <v>2.34</v>
+        <v>1.45</v>
       </c>
       <c r="H38">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="I38">
-        <v>3.15</v>
+        <v>6.5</v>
       </c>
       <c r="J38">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K38">
-        <v>6.6</v>
+        <v>20</v>
       </c>
       <c r="L38">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="M38">
-        <v>2.48</v>
+        <v>4.9</v>
       </c>
       <c r="N38">
-        <v>2.41</v>
+        <v>1.52</v>
       </c>
       <c r="O38">
-        <v>1.48</v>
+        <v>2.35</v>
       </c>
       <c r="P38">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="Q38">
+        <v>3.5</v>
+      </c>
+      <c r="R38">
+        <v>1.64</v>
+      </c>
+      <c r="S38">
+        <v>2.2</v>
+      </c>
+      <c r="T38">
+        <v>1.12</v>
+      </c>
+      <c r="U38">
+        <v>1.18</v>
+      </c>
+      <c r="V38">
+        <v>2.69</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
         <v>2.4</v>
       </c>
-      <c r="R38">
-        <v>2.03</v>
-      </c>
-      <c r="S38">
-        <v>1.7</v>
-      </c>
-      <c r="T38">
-        <v>1.38</v>
-      </c>
-      <c r="U38">
-        <v>1.36</v>
-      </c>
-      <c r="V38">
-        <v>1.53</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AB38">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="AC38">
-        <v>8.1</v>
+        <v>10.7</v>
       </c>
       <c r="AD38">
-        <v>2.48</v>
+        <v>3.54</v>
       </c>
       <c r="AE38">
-        <v>1.49</v>
+        <v>1.18</v>
       </c>
       <c r="AF38">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="AG38">
-        <v>2.55</v>
+        <v>1.61</v>
       </c>
       <c r="AH38">
-        <v>3.7</v>
+        <v>2.02</v>
       </c>
       <c r="AI38">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -5166,13 +5166,13 @@
         <v>201</v>
       </c>
       <c r="G39">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H39">
         <v>3.5</v>
       </c>
       <c r="I39">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>1.04</v>
@@ -5187,10 +5187,10 @@
         <v>4</v>
       </c>
       <c r="N39">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O39">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="P39">
         <v>1.3</v>
@@ -5199,10 +5199,10 @@
         <v>3.4</v>
       </c>
       <c r="R39">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S39">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T39">
         <v>1.83</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y39">
         <v>1.96</v>
@@ -5238,7 +5238,7 @@
         <v>1.67</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF39">
         <v>1.25</v>
@@ -5321,10 +5321,10 @@
         <v>1.4</v>
       </c>
       <c r="W40">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="X40">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y40">
         <v>1.41</v>
@@ -5428,7 +5428,7 @@
         <v>1.26</v>
       </c>
       <c r="W41">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="X41">
         <v>3</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>45163</v>
@@ -5478,7 +5478,7 @@
         <v>86</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
         <v>135</v>
@@ -5487,13 +5487,13 @@
         <v>204</v>
       </c>
       <c r="G42">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="H42">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I42">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J42">
         <v>1.06</v>
@@ -5502,81 +5502,81 @@
         <v>8</v>
       </c>
       <c r="L42">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M42">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="O42">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="P42">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q42">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R42">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="S42">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T42">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="U42">
         <v>1.3</v>
       </c>
       <c r="V42">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="W42">
-        <v>0.64</v>
+        <v>2</v>
       </c>
       <c r="X42">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="Y42">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="Z42">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AA42">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="AB42">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AC42">
         <v>8</v>
       </c>
       <c r="AD42">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="AE42">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AF42">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AG42">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="AH42">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="AI42">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>45163</v>
@@ -5585,7 +5585,7 @@
         <v>86</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
         <v>136</v>
@@ -5594,31 +5594,31 @@
         <v>205</v>
       </c>
       <c r="G43">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="H43">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="I43">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="J43">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K43">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L43">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M43">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="N43">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="O43">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="P43">
         <v>1.4</v>
@@ -5627,63 +5627,63 @@
         <v>2.75</v>
       </c>
       <c r="R43">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T43">
+        <v>1.56</v>
+      </c>
+      <c r="U43">
+        <v>1.32</v>
+      </c>
+      <c r="V43">
         <v>1.42</v>
       </c>
-      <c r="U43">
-        <v>1.25</v>
-      </c>
-      <c r="V43">
-        <v>1.44</v>
-      </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y43">
-        <v>0.79</v>
+        <v>1.57</v>
       </c>
       <c r="Z43">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="AA43">
-        <v>2.44</v>
+        <v>2.97</v>
       </c>
       <c r="AB43">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AC43">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD43">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AE43">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="AF43">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AG43">
-        <v>1.56</v>
+        <v>2.08</v>
       </c>
       <c r="AH43">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="AI43">
-        <v>2.38</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>45163</v>
@@ -5692,7 +5692,7 @@
         <v>86</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
         <v>137</v>
@@ -5701,96 +5701,96 @@
         <v>206</v>
       </c>
       <c r="G44">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H44">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="I44">
-        <v>2.73</v>
+        <v>2.88</v>
       </c>
       <c r="J44">
         <v>1.03</v>
       </c>
       <c r="K44">
-        <v>8.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="L44">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="M44">
-        <v>3.14</v>
+        <v>4.5</v>
       </c>
       <c r="N44">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="O44">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="P44">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="Q44">
-        <v>2.73</v>
+        <v>3.4</v>
       </c>
       <c r="R44">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="T44">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U44">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="V44">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y44">
-        <v>1.97</v>
+        <v>1.23</v>
       </c>
       <c r="Z44">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="AA44">
-        <v>3.01</v>
+        <v>2.75</v>
       </c>
       <c r="AB44">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AC44">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD44">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AE44">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AF44">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="AG44">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="AH44">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="AI44">
-        <v>2.7</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2">
         <v>45163</v>
@@ -5856,7 +5856,7 @@
         <v>2.55</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2">
         <v>45163</v>
@@ -5906,7 +5906,7 @@
         <v>86</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
         <v>139</v>
@@ -5915,96 +5915,96 @@
         <v>208</v>
       </c>
       <c r="G46">
-        <v>1.69</v>
+        <v>2.45</v>
       </c>
       <c r="H46">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I46">
-        <v>4.45</v>
+        <v>2.73</v>
       </c>
       <c r="J46">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K46">
-        <v>9.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L46">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M46">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="N46">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="O46">
+        <v>1.55</v>
+      </c>
+      <c r="P46">
+        <v>1.43</v>
+      </c>
+      <c r="Q46">
+        <v>2.73</v>
+      </c>
+      <c r="R46">
+        <v>1.78</v>
+      </c>
+      <c r="S46">
+        <v>1.9</v>
+      </c>
+      <c r="T46">
+        <v>1.39</v>
+      </c>
+      <c r="U46">
+        <v>1.32</v>
+      </c>
+      <c r="V46">
+        <v>1.55</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>1.97</v>
+      </c>
+      <c r="Z46">
+        <v>1.04</v>
+      </c>
+      <c r="AA46">
+        <v>3.01</v>
+      </c>
+      <c r="AB46">
+        <v>1.82</v>
+      </c>
+      <c r="AC46">
+        <v>8</v>
+      </c>
+      <c r="AD46">
+        <v>2.39</v>
+      </c>
+      <c r="AE46">
+        <v>1.18</v>
+      </c>
+      <c r="AF46">
+        <v>1.33</v>
+      </c>
+      <c r="AG46">
         <v>1.6</v>
       </c>
-      <c r="P46">
-        <v>1.45</v>
-      </c>
-      <c r="Q46">
-        <v>2.6</v>
-      </c>
-      <c r="R46">
-        <v>2</v>
-      </c>
-      <c r="S46">
-        <v>1.77</v>
-      </c>
-      <c r="T46">
-        <v>1.15</v>
-      </c>
-      <c r="U46">
-        <v>1.25</v>
-      </c>
-      <c r="V46">
+      <c r="AH46">
         <v>2.05</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>1.45</v>
-      </c>
-      <c r="AC46">
-        <v>8.5</v>
-      </c>
-      <c r="AD46">
-        <v>3.33</v>
-      </c>
-      <c r="AE46">
-        <v>1.24</v>
-      </c>
-      <c r="AF46">
-        <v>1.46</v>
-      </c>
-      <c r="AG46">
-        <v>1.95</v>
-      </c>
-      <c r="AH46">
-        <v>2.4</v>
-      </c>
       <c r="AI46">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2">
         <v>45163</v>
@@ -6013,7 +6013,7 @@
         <v>86</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
         <v>140</v>
@@ -6022,31 +6022,31 @@
         <v>209</v>
       </c>
       <c r="G47">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="H47">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="I47">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="J47">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K47">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L47">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M47">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="N47">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="O47">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="P47">
         <v>1.4</v>
@@ -6055,63 +6055,63 @@
         <v>2.75</v>
       </c>
       <c r="R47">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="U47">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="V47">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="X47">
         <v>1.5</v>
       </c>
       <c r="Y47">
-        <v>1.57</v>
+        <v>0.79</v>
       </c>
       <c r="Z47">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AA47">
-        <v>2.97</v>
+        <v>2.44</v>
       </c>
       <c r="AB47">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AC47">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD47">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AE47">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="AF47">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AG47">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="AH47">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="AI47">
-        <v>3.95</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2">
         <v>45163</v>
@@ -6120,7 +6120,7 @@
         <v>86</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
         <v>141</v>
@@ -6129,13 +6129,13 @@
         <v>210</v>
       </c>
       <c r="G48">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="H48">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I48">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J48">
         <v>1.06</v>
@@ -6144,81 +6144,81 @@
         <v>8</v>
       </c>
       <c r="L48">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M48">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N48">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="O48">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="P48">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q48">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R48">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="S48">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T48">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="U48">
         <v>1.3</v>
       </c>
       <c r="V48">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="W48">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="X48">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="Y48">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="Z48">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AA48">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
       <c r="AB48">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AC48">
         <v>8</v>
       </c>
       <c r="AD48">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="AE48">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AF48">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AG48">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AH48">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="AI48">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2">
         <v>45163</v>
@@ -6227,7 +6227,7 @@
         <v>86</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
         <v>142</v>
@@ -6236,91 +6236,91 @@
         <v>211</v>
       </c>
       <c r="G49">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="H49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I49">
-        <v>2.61</v>
+        <v>4.45</v>
       </c>
       <c r="J49">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K49">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="L49">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="M49">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="N49">
-        <v>1.57</v>
+        <v>2.06</v>
       </c>
       <c r="O49">
-        <v>2.16</v>
+        <v>1.6</v>
       </c>
       <c r="P49">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="Q49">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R49">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="T49">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="U49">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V49">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="W49">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Y49">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AC49">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD49">
-        <v>2.32</v>
+        <v>3.33</v>
       </c>
       <c r="AE49">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AF49">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="AG49">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="AH49">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AI49">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6343,91 +6343,91 @@
         <v>212</v>
       </c>
       <c r="G50">
-        <v>2.34</v>
+        <v>1.77</v>
       </c>
       <c r="H50">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I50">
-        <v>2.88</v>
+        <v>4.15</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="O50">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="P50">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q50">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
         <v>1.95</v>
       </c>
-      <c r="S50">
-        <v>1.8</v>
-      </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W50">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="X50">
-        <v>1.75</v>
+        <v>0.43</v>
       </c>
       <c r="Y50">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Z50">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
-        <v>2.96</v>
+        <v>2.73</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -6498,10 +6498,10 @@
         <v>1.01</v>
       </c>
       <c r="W51">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="X51">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="Y51">
         <v>0.95</v>
@@ -6557,13 +6557,13 @@
         <v>214</v>
       </c>
       <c r="G52">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="H52">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I52">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="J52">
         <v>1.06</v>
@@ -6572,16 +6572,16 @@
         <v>8</v>
       </c>
       <c r="L52">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M52">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N52">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O52">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="P52">
         <v>1.4</v>
@@ -6590,63 +6590,63 @@
         <v>2.75</v>
       </c>
       <c r="R52">
+        <v>1.95</v>
+      </c>
+      <c r="S52">
         <v>1.8</v>
       </c>
-      <c r="S52">
-        <v>1.95</v>
-      </c>
       <c r="T52">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="U52">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="V52">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="X52">
-        <v>0.46</v>
+        <v>1.21</v>
       </c>
       <c r="Y52">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="Z52">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="AA52">
-        <v>2.73</v>
+        <v>3.17</v>
       </c>
       <c r="AB52">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="AC52">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD52">
-        <v>4.42</v>
+        <v>3.16</v>
       </c>
       <c r="AE52">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AF52">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AG52">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AH52">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AI52">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2">
         <v>45163</v>
@@ -6655,7 +6655,7 @@
         <v>87</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
         <v>146</v>
@@ -6664,91 +6664,91 @@
         <v>215</v>
       </c>
       <c r="G53">
-        <v>1.67</v>
+        <v>2.61</v>
       </c>
       <c r="H53">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I53">
-        <v>4.6</v>
+        <v>2.41</v>
       </c>
       <c r="J53">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K53">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="L53">
+        <v>1.32</v>
+      </c>
+      <c r="M53">
+        <v>3.08</v>
+      </c>
+      <c r="N53">
+        <v>2.02</v>
+      </c>
+      <c r="O53">
+        <v>1.63</v>
+      </c>
+      <c r="P53">
+        <v>1.45</v>
+      </c>
+      <c r="Q53">
+        <v>2.53</v>
+      </c>
+      <c r="R53">
+        <v>1.83</v>
+      </c>
+      <c r="S53">
+        <v>1.83</v>
+      </c>
+      <c r="T53">
+        <v>1.48</v>
+      </c>
+      <c r="U53">
         <v>1.3</v>
       </c>
-      <c r="M53">
-        <v>3.3</v>
-      </c>
-      <c r="N53">
-        <v>1.9</v>
-      </c>
-      <c r="O53">
-        <v>1.74</v>
-      </c>
-      <c r="P53">
-        <v>1.4</v>
-      </c>
-      <c r="Q53">
-        <v>2.75</v>
-      </c>
-      <c r="R53">
-        <v>1.95</v>
-      </c>
-      <c r="S53">
-        <v>1.8</v>
-      </c>
-      <c r="T53">
-        <v>1.12</v>
-      </c>
-      <c r="U53">
-        <v>1.2</v>
-      </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="W53">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
         <v>1.31</v>
       </c>
-      <c r="Y53">
-        <v>1.96</v>
-      </c>
       <c r="Z53">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AA53">
-        <v>3.17</v>
+        <v>2.78</v>
       </c>
       <c r="AB53">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="AE53">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG53">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AH53">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AI53">
-        <v>2.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6819,10 +6819,10 @@
         <v>1.24</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y54">
         <v>1.1</v>
@@ -6860,13 +6860,13 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2">
         <v>45163</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -6878,96 +6878,96 @@
         <v>217</v>
       </c>
       <c r="G55">
-        <v>2.61</v>
+        <v>1.21</v>
       </c>
       <c r="H55">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="I55">
-        <v>2.41</v>
+        <v>11</v>
       </c>
       <c r="J55">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K55">
-        <v>10.25</v>
+        <v>19</v>
       </c>
       <c r="L55">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="M55">
-        <v>3.08</v>
+        <v>5.6</v>
       </c>
       <c r="N55">
-        <v>2.02</v>
+        <v>1.55</v>
       </c>
       <c r="O55">
-        <v>1.63</v>
+        <v>2.26</v>
       </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="Q55">
-        <v>2.53</v>
+        <v>3.75</v>
       </c>
       <c r="R55">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T55">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="U55">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="V55">
-        <v>1.42</v>
+        <v>4.1</v>
       </c>
       <c r="W55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X55">
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="Z55">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="AA55">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2">
         <v>45163</v>
@@ -6985,102 +6985,102 @@
         <v>218</v>
       </c>
       <c r="G56">
-        <v>1.21</v>
+        <v>3.05</v>
       </c>
       <c r="H56">
-        <v>5.8</v>
+        <v>3.45</v>
       </c>
       <c r="I56">
-        <v>11</v>
+        <v>2.11</v>
       </c>
       <c r="J56">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K56">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L56">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M56">
-        <v>5.6</v>
+        <v>4.33</v>
       </c>
       <c r="N56">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="O56">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="P56">
+        <v>1.3</v>
+      </c>
+      <c r="Q56">
+        <v>3.4</v>
+      </c>
+      <c r="R56">
+        <v>1.62</v>
+      </c>
+      <c r="S56">
+        <v>2.2</v>
+      </c>
+      <c r="T56">
+        <v>1.93</v>
+      </c>
+      <c r="U56">
         <v>1.25</v>
       </c>
-      <c r="Q56">
-        <v>3.75</v>
-      </c>
-      <c r="R56">
+      <c r="V56">
+        <v>1.25</v>
+      </c>
+      <c r="W56">
+        <v>0.5</v>
+      </c>
+      <c r="X56">
         <v>2</v>
       </c>
-      <c r="S56">
-        <v>1.75</v>
-      </c>
-      <c r="T56">
-        <v>1.04</v>
-      </c>
-      <c r="U56">
+      <c r="Y56">
         <v>1.12</v>
       </c>
-      <c r="V56">
-        <v>4.1</v>
-      </c>
-      <c r="W56">
-        <v>1</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>1.54</v>
-      </c>
       <c r="Z56">
-        <v>1.06</v>
+        <v>1.52</v>
       </c>
       <c r="AA56">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AB56">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AC56">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD56">
-        <v>5.6</v>
+        <v>1.71</v>
       </c>
       <c r="AE56">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AF56">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AG56">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="AH56">
-        <v>1.87</v>
+        <v>2.33</v>
       </c>
       <c r="AI56">
-        <v>2.33</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2">
         <v>45163</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -7092,102 +7092,102 @@
         <v>219</v>
       </c>
       <c r="G57">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="AA57">
-        <v>2.64</v>
+        <v>1.21</v>
       </c>
       <c r="AB57">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD57">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AE57">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AF57">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG57">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AH57">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AI57">
-        <v>3.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B58" s="2">
         <v>45163</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -7199,91 +7199,91 @@
         <v>220</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Z58">
-        <v>1.21</v>
+        <v>2.05</v>
       </c>
       <c r="AA58">
-        <v>1.21</v>
+        <v>3.08</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI58">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -7297,7 +7297,7 @@
         <v>90</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
         <v>152</v>
@@ -7306,96 +7306,96 @@
         <v>221</v>
       </c>
       <c r="G59">
-        <v>2.07</v>
+        <v>2.52</v>
       </c>
       <c r="H59">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="J59">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L59">
+        <v>1.44</v>
+      </c>
+      <c r="M59">
+        <v>2.62</v>
+      </c>
+      <c r="N59">
+        <v>2.21</v>
+      </c>
+      <c r="O59">
+        <v>1.52</v>
+      </c>
+      <c r="P59">
+        <v>1.5</v>
+      </c>
+      <c r="Q59">
+        <v>2.5</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>1.73</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
         <v>1.33</v>
       </c>
-      <c r="M59">
-        <v>3.25</v>
-      </c>
-      <c r="N59">
-        <v>1.82</v>
-      </c>
-      <c r="O59">
-        <v>1.81</v>
-      </c>
-      <c r="P59">
-        <v>1.4</v>
-      </c>
-      <c r="Q59">
-        <v>2.75</v>
-      </c>
-      <c r="R59">
-        <v>1.8</v>
-      </c>
-      <c r="S59">
-        <v>1.91</v>
-      </c>
-      <c r="T59">
-        <v>1.28</v>
-      </c>
-      <c r="U59">
-        <v>1.25</v>
-      </c>
       <c r="V59">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="W59">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="Y59">
-        <v>1.75</v>
+        <v>1.21</v>
       </c>
       <c r="Z59">
-        <v>1.5</v>
+        <v>0.97</v>
       </c>
       <c r="AA59">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="AB59">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="AC59">
-        <v>9.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="AD59">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AE59">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AF59">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AG59">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AH59">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AI59">
-        <v>3.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:35">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B60" s="2">
         <v>45163</v>
@@ -7404,7 +7404,7 @@
         <v>90</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
         <v>153</v>
@@ -7413,96 +7413,96 @@
         <v>222</v>
       </c>
       <c r="G60">
+        <v>2.07</v>
+      </c>
+      <c r="H60">
+        <v>3.15</v>
+      </c>
+      <c r="I60">
         <v>3.3</v>
       </c>
-      <c r="H60">
-        <v>3.6</v>
-      </c>
-      <c r="I60">
-        <v>1.93</v>
-      </c>
       <c r="J60">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K60">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L60">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M60">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N60">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="O60">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="P60">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q60">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R60">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T60">
-        <v>2.15</v>
+        <v>1.28</v>
       </c>
       <c r="U60">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V60">
-        <v>1.19</v>
+        <v>1.83</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Y60">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="Z60">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="AA60">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="AB60">
-        <v>2.95</v>
+        <v>1.76</v>
       </c>
       <c r="AC60">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD60">
-        <v>1.54</v>
+        <v>2.45</v>
       </c>
       <c r="AE60">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AF60">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AG60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AH60">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AI60">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
         <v>45163</v>
@@ -7511,7 +7511,7 @@
         <v>90</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>154</v>
@@ -7520,31 +7520,31 @@
         <v>223</v>
       </c>
       <c r="G61">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I61">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="J61">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P61">
         <v>1.5</v>
@@ -7553,63 +7553,63 @@
         <v>2.5</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>1.69</v>
       </c>
       <c r="Y61">
-        <v>1.21</v>
+        <v>1.7</v>
       </c>
       <c r="Z61">
-        <v>0.97</v>
+        <v>1.26</v>
       </c>
       <c r="AA61">
-        <v>2.18</v>
+        <v>2.96</v>
       </c>
       <c r="AB61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD61">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE61">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF61">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG61">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AH61">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AI61">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>45163</v>
@@ -7675,10 +7675,10 @@
         <v>2.03</v>
       </c>
       <c r="W62">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="X62">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="Y62">
         <v>1.53</v>
@@ -7782,10 +7782,10 @@
         <v>1.25</v>
       </c>
       <c r="W63">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="X63">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="Y63">
         <v>1.17</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
         <v>45163</v>
@@ -7889,10 +7889,10 @@
         <v>1.5</v>
       </c>
       <c r="W64">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X64">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="Y64">
         <v>1.61</v>
@@ -7948,13 +7948,13 @@
         <v>227</v>
       </c>
       <c r="G65">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H65">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I65">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J65">
         <v>1.1</v>
@@ -7963,16 +7963,16 @@
         <v>6.25</v>
       </c>
       <c r="L65">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="M65">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N65">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="O65">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P65">
         <v>1.55</v>
@@ -7996,10 +7996,10 @@
         <v>1.88</v>
       </c>
       <c r="W65">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X65">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="Y65">
         <v>1.49</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="X67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y67">
         <v>1.53</v>
@@ -8483,13 +8483,13 @@
         <v>232</v>
       </c>
       <c r="G70">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H70">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I70">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="J70">
         <v>1.1</v>
@@ -8498,16 +8498,16 @@
         <v>6.5</v>
       </c>
       <c r="L70">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M70">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N70">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="O70">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P70">
         <v>1.51</v>
